--- a/data-raw/data.xlsx
+++ b/data-raw/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\2022_novonak_metabolomics\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF599810-5E8B-48CF-966E-BD6150A21840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DD564-176B-4B6A-BD06-4A0993BB43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="4560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preprocessed.data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="299">
   <si>
     <t>1-Hydroxy-2-Naphthoate</t>
   </si>
@@ -588,186 +588,6 @@
     <t>_Linolenic Acid (18:3 N?3)</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>S37</t>
-  </si>
-  <si>
-    <t>S38</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>S40</t>
-  </si>
-  <si>
-    <t>S41</t>
-  </si>
-  <si>
-    <t>S42</t>
-  </si>
-  <si>
-    <t>S43</t>
-  </si>
-  <si>
-    <t>S44</t>
-  </si>
-  <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>S46</t>
-  </si>
-  <si>
-    <t>S47</t>
-  </si>
-  <si>
-    <t>S48</t>
-  </si>
-  <si>
-    <t>S49</t>
-  </si>
-  <si>
-    <t>S50</t>
-  </si>
-  <si>
-    <t>S51</t>
-  </si>
-  <si>
-    <t>S52</t>
-  </si>
-  <si>
-    <t>S53</t>
-  </si>
-  <si>
-    <t>S54</t>
-  </si>
-  <si>
-    <t>S55</t>
-  </si>
-  <si>
-    <t>S56</t>
-  </si>
-  <si>
-    <t>S57</t>
-  </si>
-  <si>
-    <t>S58</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>S60</t>
-  </si>
-  <si>
     <t>Identity</t>
   </si>
   <si>
@@ -888,6 +708,216 @@
     <t>low_cv</t>
   </si>
   <si>
+    <t>s_1</t>
+  </si>
+  <si>
+    <t>s_2</t>
+  </si>
+  <si>
+    <t>s_3</t>
+  </si>
+  <si>
+    <t>s_4</t>
+  </si>
+  <si>
+    <t>s_5</t>
+  </si>
+  <si>
+    <t>s_6</t>
+  </si>
+  <si>
+    <t>s_7</t>
+  </si>
+  <si>
+    <t>s_8</t>
+  </si>
+  <si>
+    <t>s_9</t>
+  </si>
+  <si>
+    <t>s_10</t>
+  </si>
+  <si>
+    <t>s_11</t>
+  </si>
+  <si>
+    <t>s_12</t>
+  </si>
+  <si>
+    <t>s_13</t>
+  </si>
+  <si>
+    <t>s_14</t>
+  </si>
+  <si>
+    <t>s_15</t>
+  </si>
+  <si>
+    <t>s_16</t>
+  </si>
+  <si>
+    <t>s_17</t>
+  </si>
+  <si>
+    <t>s_18</t>
+  </si>
+  <si>
+    <t>s_19</t>
+  </si>
+  <si>
+    <t>s_20</t>
+  </si>
+  <si>
+    <t>s_21</t>
+  </si>
+  <si>
+    <t>s_22</t>
+  </si>
+  <si>
+    <t>s_23</t>
+  </si>
+  <si>
+    <t>s_24</t>
+  </si>
+  <si>
+    <t>s_25</t>
+  </si>
+  <si>
+    <t>s_26</t>
+  </si>
+  <si>
+    <t>s_27</t>
+  </si>
+  <si>
+    <t>s_28</t>
+  </si>
+  <si>
+    <t>s_29</t>
+  </si>
+  <si>
+    <t>s_30</t>
+  </si>
+  <si>
+    <t>s_31</t>
+  </si>
+  <si>
+    <t>s_32</t>
+  </si>
+  <si>
+    <t>s_33</t>
+  </si>
+  <si>
+    <t>s_34</t>
+  </si>
+  <si>
+    <t>s_35</t>
+  </si>
+  <si>
+    <t>s_36</t>
+  </si>
+  <si>
+    <t>s_37</t>
+  </si>
+  <si>
+    <t>s_38</t>
+  </si>
+  <si>
+    <t>s_39</t>
+  </si>
+  <si>
+    <t>s_40</t>
+  </si>
+  <si>
+    <t>s_41</t>
+  </si>
+  <si>
+    <t>s_42</t>
+  </si>
+  <si>
+    <t>s_43</t>
+  </si>
+  <si>
+    <t>s_44</t>
+  </si>
+  <si>
+    <t>s_45</t>
+  </si>
+  <si>
+    <t>s_46</t>
+  </si>
+  <si>
+    <t>s_47</t>
+  </si>
+  <si>
+    <t>s_48</t>
+  </si>
+  <si>
+    <t>s_49</t>
+  </si>
+  <si>
+    <t>s_50</t>
+  </si>
+  <si>
+    <t>s_51</t>
+  </si>
+  <si>
+    <t>s_52</t>
+  </si>
+  <si>
+    <t>s_53</t>
+  </si>
+  <si>
+    <t>s_54</t>
+  </si>
+  <si>
+    <t>s_55</t>
+  </si>
+  <si>
+    <t>s_56</t>
+  </si>
+  <si>
+    <t>s_57</t>
+  </si>
+  <si>
+    <t>s_58</t>
+  </si>
+  <si>
+    <t>s_59</t>
+  </si>
+  <si>
+    <t>s_60</t>
+  </si>
+  <si>
+    <t>s_61</t>
+  </si>
+  <si>
+    <t>s_62</t>
+  </si>
+  <si>
+    <t>s_63</t>
+  </si>
+  <si>
+    <t>s_64</t>
+  </si>
+  <si>
+    <t>s_65</t>
+  </si>
+  <si>
+    <t>s_66</t>
+  </si>
+  <si>
+    <t>s_67</t>
+  </si>
+  <si>
+    <t>s_68</t>
+  </si>
+  <si>
+    <t>s_69</t>
+  </si>
+  <si>
+    <t>s_70</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
 </sst>
@@ -895,10 +925,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1222,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GG61"/>
+  <dimension ref="A1:GG71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1232,7 +1268,7 @@
   <sheetData>
     <row r="1" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1801,7 +1837,7 @@
     </row>
     <row r="2" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>13703.5826969099</v>
@@ -2370,7 +2406,7 @@
     </row>
     <row r="3" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>7902.7823455206099</v>
@@ -2939,7 +2975,7 @@
     </row>
     <row r="4" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B4">
         <v>10656.806150844899</v>
@@ -3508,7 +3544,7 @@
     </row>
     <row r="5" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="B5">
         <v>12625.0436814984</v>
@@ -4077,7 +4113,7 @@
     </row>
     <row r="6" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B6">
         <v>11814.8995174919</v>
@@ -4646,7 +4682,7 @@
     </row>
     <row r="7" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>6837.1444512217004</v>
@@ -5215,7 +5251,7 @@
     </row>
     <row r="8" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B8">
         <v>8495.2158344563104</v>
@@ -5784,7 +5820,7 @@
     </row>
     <row r="9" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="B9">
         <v>11332.0912977439</v>
@@ -6353,7 +6389,7 @@
     </row>
     <row r="10" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="B10">
         <v>8043.4452385306604</v>
@@ -6922,7 +6958,7 @@
     </row>
     <row r="11" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="B11">
         <v>8565.6586146095506</v>
@@ -7491,7 +7527,7 @@
     </row>
     <row r="12" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="B12">
         <v>5817.2843598107702</v>
@@ -8060,7 +8096,7 @@
     </row>
     <row r="13" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="B13">
         <v>11200.4508926443</v>
@@ -8629,7 +8665,7 @@
     </row>
     <row r="14" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="B14">
         <v>10364.9667802193</v>
@@ -9198,7 +9234,7 @@
     </row>
     <row r="15" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B15">
         <v>11510.115215944499</v>
@@ -9767,7 +9803,7 @@
     </row>
     <row r="16" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="B16">
         <v>7717.2187136807497</v>
@@ -10336,7 +10372,7 @@
     </row>
     <row r="17" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="B17">
         <v>8627.98644597364</v>
@@ -10905,7 +10941,7 @@
     </row>
     <row r="18" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B18">
         <v>13163.0987001331</v>
@@ -11474,7 +11510,7 @@
     </row>
     <row r="19" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B19">
         <v>8958.0199454321591</v>
@@ -12043,7 +12079,7 @@
     </row>
     <row r="20" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B20">
         <v>7012.8074926460004</v>
@@ -12612,7 +12648,7 @@
     </row>
     <row r="21" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B21">
         <v>10076.5198986417</v>
@@ -13181,7 +13217,7 @@
     </row>
     <row r="22" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B22">
         <v>4801.2566347074098</v>
@@ -13750,7 +13786,7 @@
     </row>
     <row r="23" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B23">
         <v>14589.8297520591</v>
@@ -14319,7 +14355,7 @@
     </row>
     <row r="24" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B24">
         <v>11861.720032740201</v>
@@ -14888,7 +14924,7 @@
     </row>
     <row r="25" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="B25">
         <v>10122.553578863301</v>
@@ -15457,7 +15493,7 @@
     </row>
     <row r="26" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="B26">
         <v>10348.140391889099</v>
@@ -16026,7 +16062,7 @@
     </row>
     <row r="27" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="B27">
         <v>11192.344125809401</v>
@@ -16595,7 +16631,7 @@
     </row>
     <row r="28" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="B28">
         <v>10647.517594343601</v>
@@ -17164,7 +17200,7 @@
     </row>
     <row r="29" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="B29">
         <v>8105.8193672212601</v>
@@ -17733,7 +17769,7 @@
     </row>
     <row r="30" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B30">
         <v>11567.4039159042</v>
@@ -18302,7 +18338,7 @@
     </row>
     <row r="31" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="B31">
         <v>7492.9511844323297</v>
@@ -18871,7 +18907,7 @@
     </row>
     <row r="32" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B32">
         <v>3984.30712498189</v>
@@ -19440,7 +19476,7 @@
     </row>
     <row r="33" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="B33">
         <v>9220.7546373161804</v>
@@ -20009,7 +20045,7 @@
     </row>
     <row r="34" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B34">
         <v>10503.609607652999</v>
@@ -20578,7 +20614,7 @@
     </row>
     <row r="35" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="B35">
         <v>7452.2192925419004</v>
@@ -21147,7 +21183,7 @@
     </row>
     <row r="36" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="B36">
         <v>4628.9845984743397</v>
@@ -21716,7 +21752,7 @@
     </row>
     <row r="37" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="B37">
         <v>7520.5866698439404</v>
@@ -22285,7 +22321,7 @@
     </row>
     <row r="38" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="B38">
         <v>12605.037630484199</v>
@@ -22854,7 +22890,7 @@
     </row>
     <row r="39" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="B39">
         <v>11527.5556985975</v>
@@ -23423,7 +23459,7 @@
     </row>
     <row r="40" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="B40">
         <v>6915.8763337931496</v>
@@ -23992,7 +24028,7 @@
     </row>
     <row r="41" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="B41">
         <v>12493.420864935701</v>
@@ -24561,7 +24597,7 @@
     </row>
     <row r="42" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="B42">
         <v>9297.1426241878398</v>
@@ -25130,7 +25166,7 @@
     </row>
     <row r="43" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="B43">
         <v>4993.0224933936697</v>
@@ -25699,7 +25735,7 @@
     </row>
     <row r="44" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="B44">
         <v>6376.7487357848304</v>
@@ -26268,7 +26304,7 @@
     </row>
     <row r="45" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="B45">
         <v>9448.7565851442105</v>
@@ -26837,7 +26873,7 @@
     </row>
     <row r="46" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B46">
         <v>9632.5565048185399</v>
@@ -27406,7 +27442,7 @@
     </row>
     <row r="47" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="B47">
         <v>6047.42310221754</v>
@@ -27975,7 +28011,7 @@
     </row>
     <row r="48" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="B48">
         <v>6963.3194306463602</v>
@@ -28544,7 +28580,7 @@
     </row>
     <row r="49" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B49">
         <v>9863.4505268362409</v>
@@ -29113,7 +29149,7 @@
     </row>
     <row r="50" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B50">
         <v>11099.78484815</v>
@@ -29682,7 +29718,7 @@
     </row>
     <row r="51" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B51">
         <v>8817.7870329255693</v>
@@ -30251,7 +30287,7 @@
     </row>
     <row r="52" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B52">
         <v>5164.0502839594401</v>
@@ -30820,7 +30856,7 @@
     </row>
     <row r="53" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="B53">
         <v>8018.6859750450603</v>
@@ -31389,7 +31425,7 @@
     </row>
     <row r="54" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B54">
         <v>15647.9194906503</v>
@@ -31958,7 +31994,7 @@
     </row>
     <row r="55" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B55">
         <v>10282.906509992299</v>
@@ -32527,7 +32563,7 @@
     </row>
     <row r="56" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B56">
         <v>6851.9370748912997</v>
@@ -33096,7 +33132,7 @@
     </row>
     <row r="57" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B57">
         <v>4711.37906125258</v>
@@ -33665,7 +33701,7 @@
     </row>
     <row r="58" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="B58">
         <v>7055.4831149031997</v>
@@ -34234,7 +34270,7 @@
     </row>
     <row r="59" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="B59">
         <v>9190.4173287063404</v>
@@ -34803,7 +34839,7 @@
     </row>
     <row r="60" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B60">
         <v>10013.594502100301</v>
@@ -35372,7 +35408,7 @@
     </row>
     <row r="61" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="B61">
         <v>9682.47598408044</v>
@@ -35939,7 +35975,5698 @@
         <v>123746.192545364</v>
       </c>
     </row>
+    <row r="62" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62">
+        <v>7472.4441962174897</v>
+      </c>
+      <c r="C62">
+        <v>5467.3438615941204</v>
+      </c>
+      <c r="D62">
+        <v>20045.3486039214</v>
+      </c>
+      <c r="E62">
+        <v>21560.086481193899</v>
+      </c>
+      <c r="F62">
+        <v>6346.2145685579198</v>
+      </c>
+      <c r="G62">
+        <v>136956.67338770701</v>
+      </c>
+      <c r="H62">
+        <v>578440.47509633598</v>
+      </c>
+      <c r="I62">
+        <v>12517.139555702101</v>
+      </c>
+      <c r="J62">
+        <v>13704.4752450018</v>
+      </c>
+      <c r="K62">
+        <v>27732.032715835401</v>
+      </c>
+      <c r="L62">
+        <v>2434.8011950354598</v>
+      </c>
+      <c r="M62">
+        <v>5665.1137937352196</v>
+      </c>
+      <c r="N62">
+        <v>5060.7164311124297</v>
+      </c>
+      <c r="O62">
+        <v>7536.2096638536996</v>
+      </c>
+      <c r="P62">
+        <v>32680.757225671401</v>
+      </c>
+      <c r="Q62">
+        <v>3381.7586278981898</v>
+      </c>
+      <c r="R62">
+        <v>7499.2591873522497</v>
+      </c>
+      <c r="S62">
+        <v>11954.123047872299</v>
+      </c>
+      <c r="T62">
+        <v>5424.6427905518103</v>
+      </c>
+      <c r="U62">
+        <v>10718.845789598099</v>
+      </c>
+      <c r="V62">
+        <v>5235.1131901754097</v>
+      </c>
+      <c r="W62">
+        <v>2540275.79486176</v>
+      </c>
+      <c r="X62">
+        <v>2305.60003145972</v>
+      </c>
+      <c r="Y62">
+        <v>67934.649447395495</v>
+      </c>
+      <c r="Z62">
+        <v>6356.4468585131099</v>
+      </c>
+      <c r="AA62">
+        <v>833584.82611549797</v>
+      </c>
+      <c r="AB62">
+        <v>3554.7064871561402</v>
+      </c>
+      <c r="AC62">
+        <v>19120.905089898301</v>
+      </c>
+      <c r="AD62">
+        <v>3700.4687765957401</v>
+      </c>
+      <c r="AE62">
+        <v>1752.49914517809</v>
+      </c>
+      <c r="AF62">
+        <v>154304.18498581601</v>
+      </c>
+      <c r="AG62">
+        <v>3341.0739880568299</v>
+      </c>
+      <c r="AH62">
+        <v>9591.2256230559105</v>
+      </c>
+      <c r="AI62">
+        <v>19301.4306187943</v>
+      </c>
+      <c r="AJ62">
+        <v>2169.8573231048899</v>
+      </c>
+      <c r="AK62">
+        <v>1004</v>
+      </c>
+      <c r="AL62">
+        <v>1032.3011263205999</v>
+      </c>
+      <c r="AM62">
+        <v>3686</v>
+      </c>
+      <c r="AN62">
+        <v>4249.2822618203299</v>
+      </c>
+      <c r="AO62">
+        <v>6787.7680892435001</v>
+      </c>
+      <c r="AP62">
+        <v>50164.714945283296</v>
+      </c>
+      <c r="AQ62">
+        <v>1481.9751767139501</v>
+      </c>
+      <c r="AR62">
+        <v>736040.07885531499</v>
+      </c>
+      <c r="AS62">
+        <v>2102.6999482078099</v>
+      </c>
+      <c r="AT62">
+        <v>62643.394622931402</v>
+      </c>
+      <c r="AU62">
+        <v>11834.5051688844</v>
+      </c>
+      <c r="AV62">
+        <v>37920</v>
+      </c>
+      <c r="AW62">
+        <v>14091.3449622432</v>
+      </c>
+      <c r="AX62">
+        <v>2958.7017582387898</v>
+      </c>
+      <c r="AY62">
+        <v>5669.7810005356196</v>
+      </c>
+      <c r="AZ62">
+        <v>2711.32063673429</v>
+      </c>
+      <c r="BA62">
+        <v>3288.1097846867401</v>
+      </c>
+      <c r="BB62">
+        <v>7697.6901217494096</v>
+      </c>
+      <c r="BC62">
+        <v>197225.217905809</v>
+      </c>
+      <c r="BD62">
+        <v>65394.032219526503</v>
+      </c>
+      <c r="BE62">
+        <v>95831.655342377693</v>
+      </c>
+      <c r="BF62">
+        <v>141013.155754468</v>
+      </c>
+      <c r="BG62">
+        <v>550842.80512898904</v>
+      </c>
+      <c r="BH62">
+        <v>1067322</v>
+      </c>
+      <c r="BI62">
+        <v>1367.5571364106399</v>
+      </c>
+      <c r="BJ62">
+        <v>23918.282763592801</v>
+      </c>
+      <c r="BK62">
+        <v>4868.4369584066299</v>
+      </c>
+      <c r="BL62">
+        <v>9254.7472736406598</v>
+      </c>
+      <c r="BM62">
+        <v>3018.9859477415698</v>
+      </c>
+      <c r="BN62">
+        <v>3319.69590248227</v>
+      </c>
+      <c r="BO62">
+        <v>12544</v>
+      </c>
+      <c r="BP62">
+        <v>56654.713269503503</v>
+      </c>
+      <c r="BQ62">
+        <v>565714.82810577599</v>
+      </c>
+      <c r="BR62">
+        <v>68628.358951108603</v>
+      </c>
+      <c r="BS62">
+        <v>6201.25884314826</v>
+      </c>
+      <c r="BT62">
+        <v>13368.379009566101</v>
+      </c>
+      <c r="BU62">
+        <v>33310.720020696499</v>
+      </c>
+      <c r="BV62">
+        <v>16198745.636889201</v>
+      </c>
+      <c r="BW62">
+        <v>176502</v>
+      </c>
+      <c r="BX62">
+        <v>32125.211051097001</v>
+      </c>
+      <c r="BY62">
+        <v>39450</v>
+      </c>
+      <c r="BZ62">
+        <v>102072.874571241</v>
+      </c>
+      <c r="CA62">
+        <v>676902.43528682506</v>
+      </c>
+      <c r="CB62">
+        <v>417722.89489851298</v>
+      </c>
+      <c r="CC62">
+        <v>459916.18371727201</v>
+      </c>
+      <c r="CD62">
+        <v>147290.52000972899</v>
+      </c>
+      <c r="CE62">
+        <v>153557.93432622499</v>
+      </c>
+      <c r="CF62">
+        <v>4929.2837227956998</v>
+      </c>
+      <c r="CG62">
+        <v>727.05036039587799</v>
+      </c>
+      <c r="CH62">
+        <v>12597.6828351064</v>
+      </c>
+      <c r="CI62">
+        <v>43304.942385734503</v>
+      </c>
+      <c r="CJ62">
+        <v>3445.3718059715202</v>
+      </c>
+      <c r="CK62">
+        <v>41537.872744301603</v>
+      </c>
+      <c r="CL62">
+        <v>13270.369249614399</v>
+      </c>
+      <c r="CM62">
+        <v>3060.0504509596899</v>
+      </c>
+      <c r="CN62">
+        <v>45061.1768800352</v>
+      </c>
+      <c r="CO62">
+        <v>31016.462983790101</v>
+      </c>
+      <c r="CP62">
+        <v>32028</v>
+      </c>
+      <c r="CQ62">
+        <v>29653.804862884201</v>
+      </c>
+      <c r="CR62">
+        <v>771371.134486394</v>
+      </c>
+      <c r="CS62">
+        <v>9685.0993594335396</v>
+      </c>
+      <c r="CT62">
+        <v>6022</v>
+      </c>
+      <c r="CU62">
+        <v>6528.4187981464402</v>
+      </c>
+      <c r="CV62">
+        <v>5824.5506941065796</v>
+      </c>
+      <c r="CW62">
+        <v>48085.260926151197</v>
+      </c>
+      <c r="CX62">
+        <v>78918.074627479698</v>
+      </c>
+      <c r="CY62">
+        <v>23467.106595050798</v>
+      </c>
+      <c r="CZ62">
+        <v>2939.4177130769099</v>
+      </c>
+      <c r="DA62">
+        <v>2985.4023463356998</v>
+      </c>
+      <c r="DB62">
+        <v>7776.7905021761298</v>
+      </c>
+      <c r="DC62">
+        <v>99294.802003694698</v>
+      </c>
+      <c r="DD62">
+        <v>48106.8090060287</v>
+      </c>
+      <c r="DE62">
+        <v>3788.06215236654</v>
+      </c>
+      <c r="DF62">
+        <v>1612.4575963663999</v>
+      </c>
+      <c r="DG62">
+        <v>3561.7265863850598</v>
+      </c>
+      <c r="DH62">
+        <v>3403.8537539255899</v>
+      </c>
+      <c r="DI62">
+        <v>39418.061697785903</v>
+      </c>
+      <c r="DJ62">
+        <v>5581.2746727096501</v>
+      </c>
+      <c r="DK62">
+        <v>1153.2453573293601</v>
+      </c>
+      <c r="DL62">
+        <v>10835.047400101999</v>
+      </c>
+      <c r="DM62">
+        <v>19778.737460992899</v>
+      </c>
+      <c r="DN62">
+        <v>23660</v>
+      </c>
+      <c r="DO62">
+        <v>126104.30217004201</v>
+      </c>
+      <c r="DP62">
+        <v>2722198.3668799</v>
+      </c>
+      <c r="DQ62">
+        <v>50861.8139266289</v>
+      </c>
+      <c r="DR62">
+        <v>5210</v>
+      </c>
+      <c r="DS62">
+        <v>6739.5011052009504</v>
+      </c>
+      <c r="DT62">
+        <v>48761.677825669598</v>
+      </c>
+      <c r="DU62">
+        <v>9256.9104719240295</v>
+      </c>
+      <c r="DV62">
+        <v>396057.41906028398</v>
+      </c>
+      <c r="DW62">
+        <v>1045743.98085774</v>
+      </c>
+      <c r="DX62">
+        <v>9302</v>
+      </c>
+      <c r="DY62">
+        <v>1017.8108491732399</v>
+      </c>
+      <c r="DZ62">
+        <v>37745.9836835198</v>
+      </c>
+      <c r="EA62">
+        <v>8840.0087440898296</v>
+      </c>
+      <c r="EB62">
+        <v>118951.13273028401</v>
+      </c>
+      <c r="EC62">
+        <v>2711164.35230303</v>
+      </c>
+      <c r="ED62">
+        <v>131825.10140030499</v>
+      </c>
+      <c r="EE62">
+        <v>58413.776687943297</v>
+      </c>
+      <c r="EF62">
+        <v>31166.353179925802</v>
+      </c>
+      <c r="EG62">
+        <v>36384</v>
+      </c>
+      <c r="EH62">
+        <v>4535187.8922417499</v>
+      </c>
+      <c r="EI62">
+        <v>9696.8615801436008</v>
+      </c>
+      <c r="EJ62">
+        <v>26075.5926240564</v>
+      </c>
+      <c r="EK62">
+        <v>5087.3125474476001</v>
+      </c>
+      <c r="EL62">
+        <v>7705.8345245296796</v>
+      </c>
+      <c r="EM62">
+        <v>161510.4211258</v>
+      </c>
+      <c r="EN62">
+        <v>55381.608947370099</v>
+      </c>
+      <c r="EO62">
+        <v>226872.857970668</v>
+      </c>
+      <c r="EP62">
+        <v>16229.124336495801</v>
+      </c>
+      <c r="EQ62">
+        <v>5934.1849667359702</v>
+      </c>
+      <c r="ER62">
+        <v>14769.6971170213</v>
+      </c>
+      <c r="ES62">
+        <v>24944.995164467298</v>
+      </c>
+      <c r="ET62">
+        <v>1442.6465230496501</v>
+      </c>
+      <c r="EU62">
+        <v>154062.90914159</v>
+      </c>
+      <c r="EV62">
+        <v>35061.121308415299</v>
+      </c>
+      <c r="EW62">
+        <v>9537430.1060760003</v>
+      </c>
+      <c r="EX62">
+        <v>55854.828557858898</v>
+      </c>
+      <c r="EY62">
+        <v>55655.924167848898</v>
+      </c>
+      <c r="EZ62">
+        <v>2388.1638296142401</v>
+      </c>
+      <c r="FA62">
+        <v>3713287.6729989299</v>
+      </c>
+      <c r="FB62">
+        <v>1081679.2309785499</v>
+      </c>
+      <c r="FC62">
+        <v>55486.854976880597</v>
+      </c>
+      <c r="FD62">
+        <v>94567.231958850098</v>
+      </c>
+      <c r="FE62">
+        <v>306901.74844756402</v>
+      </c>
+      <c r="FF62">
+        <v>6695.1169524939196</v>
+      </c>
+      <c r="FG62">
+        <v>32183.350656229999</v>
+      </c>
+      <c r="FH62">
+        <v>243162.87968118201</v>
+      </c>
+      <c r="FI62">
+        <v>2586.6956088315701</v>
+      </c>
+      <c r="FJ62">
+        <v>229280.687864657</v>
+      </c>
+      <c r="FK62">
+        <v>8010.8458035076901</v>
+      </c>
+      <c r="FL62">
+        <v>23064</v>
+      </c>
+      <c r="FM62">
+        <v>1220.99490705576</v>
+      </c>
+      <c r="FN62">
+        <v>1355960.7425887799</v>
+      </c>
+      <c r="FO62">
+        <v>27829.4858259272</v>
+      </c>
+      <c r="FP62">
+        <v>8562.9205023640698</v>
+      </c>
+      <c r="FQ62">
+        <v>6800.28175177305</v>
+      </c>
+      <c r="FR62">
+        <v>100642</v>
+      </c>
+      <c r="FS62">
+        <v>57223.412246640597</v>
+      </c>
+      <c r="FT62">
+        <v>26293.5652093887</v>
+      </c>
+      <c r="FU62">
+        <v>292231.06903589598</v>
+      </c>
+      <c r="FV62">
+        <v>2005.9202044487499</v>
+      </c>
+      <c r="FW62">
+        <v>246334.57223397499</v>
+      </c>
+      <c r="FX62">
+        <v>23206.348319245299</v>
+      </c>
+      <c r="FY62">
+        <v>7097.9994501819401</v>
+      </c>
+      <c r="FZ62">
+        <v>13504.462093566701</v>
+      </c>
+      <c r="GA62">
+        <v>38213.150033096899</v>
+      </c>
+      <c r="GB62">
+        <v>1967082</v>
+      </c>
+      <c r="GC62">
+        <v>9274599.3054107595</v>
+      </c>
+      <c r="GD62">
+        <v>21053.343372931398</v>
+      </c>
+      <c r="GE62">
+        <v>51710</v>
+      </c>
+      <c r="GF62">
+        <v>38538</v>
+      </c>
+      <c r="GG62">
+        <v>367495.61035751901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>289</v>
+      </c>
+      <c r="B63">
+        <v>5870.9459812191299</v>
+      </c>
+      <c r="C63">
+        <v>7549.0438473687</v>
+      </c>
+      <c r="D63">
+        <v>16070.4366925863</v>
+      </c>
+      <c r="E63">
+        <v>10593.794982009</v>
+      </c>
+      <c r="F63">
+        <v>8692.5511832383199</v>
+      </c>
+      <c r="G63">
+        <v>147306.31918557899</v>
+      </c>
+      <c r="H63">
+        <v>583346.61091102299</v>
+      </c>
+      <c r="I63">
+        <v>13310.759193768101</v>
+      </c>
+      <c r="J63">
+        <v>22171.360359343402</v>
+      </c>
+      <c r="K63">
+        <v>32612.116478595301</v>
+      </c>
+      <c r="L63">
+        <v>3346.5550070460099</v>
+      </c>
+      <c r="M63">
+        <v>4660.8594821315601</v>
+      </c>
+      <c r="N63">
+        <v>5466.4752139817501</v>
+      </c>
+      <c r="O63">
+        <v>10804.7591561717</v>
+      </c>
+      <c r="P63">
+        <v>29831.303895783101</v>
+      </c>
+      <c r="Q63">
+        <v>1850.4776854294701</v>
+      </c>
+      <c r="R63">
+        <v>4155.2093022895497</v>
+      </c>
+      <c r="S63">
+        <v>8951.1661607147707</v>
+      </c>
+      <c r="T63">
+        <v>4372.4389666310799</v>
+      </c>
+      <c r="U63">
+        <v>12147.184091319299</v>
+      </c>
+      <c r="V63">
+        <v>6176.3200415421998</v>
+      </c>
+      <c r="W63">
+        <v>1624487.44242776</v>
+      </c>
+      <c r="X63">
+        <v>2502.82442951136</v>
+      </c>
+      <c r="Y63">
+        <v>56160.8553556857</v>
+      </c>
+      <c r="Z63">
+        <v>4047.6292148242001</v>
+      </c>
+      <c r="AA63">
+        <v>726406.25549910602</v>
+      </c>
+      <c r="AB63">
+        <v>3189.0929692815298</v>
+      </c>
+      <c r="AC63">
+        <v>18368.569935842199</v>
+      </c>
+      <c r="AD63">
+        <v>3076.3602544586802</v>
+      </c>
+      <c r="AE63">
+        <v>1610.6041726311601</v>
+      </c>
+      <c r="AF63">
+        <v>86720.935805424204</v>
+      </c>
+      <c r="AG63">
+        <v>2650.95050883455</v>
+      </c>
+      <c r="AH63">
+        <v>9442.2892158459108</v>
+      </c>
+      <c r="AI63">
+        <v>18751.515829561198</v>
+      </c>
+      <c r="AJ63">
+        <v>2603.3562894415199</v>
+      </c>
+      <c r="AK63">
+        <v>846</v>
+      </c>
+      <c r="AL63">
+        <v>103.26217039913401</v>
+      </c>
+      <c r="AM63">
+        <v>2160</v>
+      </c>
+      <c r="AN63">
+        <v>3134.2591300131098</v>
+      </c>
+      <c r="AO63">
+        <v>5801.4673305538199</v>
+      </c>
+      <c r="AP63">
+        <v>52080.430401941499</v>
+      </c>
+      <c r="AQ63">
+        <v>1511.1606519706099</v>
+      </c>
+      <c r="AR63">
+        <v>679753.863582914</v>
+      </c>
+      <c r="AS63">
+        <v>2827.6805427568602</v>
+      </c>
+      <c r="AT63">
+        <v>38417.8338928823</v>
+      </c>
+      <c r="AU63">
+        <v>15495.0908522231</v>
+      </c>
+      <c r="AV63">
+        <v>42864</v>
+      </c>
+      <c r="AW63">
+        <v>14736.3012030096</v>
+      </c>
+      <c r="AX63">
+        <v>3210.6353834214601</v>
+      </c>
+      <c r="AY63">
+        <v>6313.1462198460204</v>
+      </c>
+      <c r="AZ63">
+        <v>4155.5440408757804</v>
+      </c>
+      <c r="BA63">
+        <v>3018.4077416487098</v>
+      </c>
+      <c r="BB63">
+        <v>4359.7853292485297</v>
+      </c>
+      <c r="BC63">
+        <v>147440.84556021201</v>
+      </c>
+      <c r="BD63">
+        <v>19311.190475582502</v>
+      </c>
+      <c r="BE63">
+        <v>26302.738178170501</v>
+      </c>
+      <c r="BF63">
+        <v>54543.157436810099</v>
+      </c>
+      <c r="BG63">
+        <v>484734.87414466398</v>
+      </c>
+      <c r="BH63">
+        <v>920664</v>
+      </c>
+      <c r="BI63">
+        <v>1279.68680036104</v>
+      </c>
+      <c r="BJ63">
+        <v>16469.520107643701</v>
+      </c>
+      <c r="BK63">
+        <v>4106.2724612069496</v>
+      </c>
+      <c r="BL63">
+        <v>6805.0478401639302</v>
+      </c>
+      <c r="BM63">
+        <v>3520.6620136143702</v>
+      </c>
+      <c r="BN63">
+        <v>2636.3288002450199</v>
+      </c>
+      <c r="BO63">
+        <v>13102</v>
+      </c>
+      <c r="BP63">
+        <v>44412.2974752843</v>
+      </c>
+      <c r="BQ63">
+        <v>518432.32959110901</v>
+      </c>
+      <c r="BR63">
+        <v>53731.373157880698</v>
+      </c>
+      <c r="BS63">
+        <v>4551.2889024758897</v>
+      </c>
+      <c r="BT63">
+        <v>15722.823929587301</v>
+      </c>
+      <c r="BU63">
+        <v>31028.837470138398</v>
+      </c>
+      <c r="BV63">
+        <v>16349730.0970471</v>
+      </c>
+      <c r="BW63">
+        <v>168020</v>
+      </c>
+      <c r="BX63">
+        <v>29150.211937109001</v>
+      </c>
+      <c r="BY63">
+        <v>18836</v>
+      </c>
+      <c r="BZ63">
+        <v>96695.210992516601</v>
+      </c>
+      <c r="CA63">
+        <v>631857.63614626799</v>
+      </c>
+      <c r="CB63">
+        <v>382487.34939852299</v>
+      </c>
+      <c r="CC63">
+        <v>385973.41815861402</v>
+      </c>
+      <c r="CD63">
+        <v>137387.212086863</v>
+      </c>
+      <c r="CE63">
+        <v>146498.35170817</v>
+      </c>
+      <c r="CF63">
+        <v>3474.6324088362699</v>
+      </c>
+      <c r="CG63">
+        <v>17336.594967511501</v>
+      </c>
+      <c r="CH63">
+        <v>19091.189232813798</v>
+      </c>
+      <c r="CI63">
+        <v>43147.751691516904</v>
+      </c>
+      <c r="CJ63">
+        <v>2897.0420320349599</v>
+      </c>
+      <c r="CK63">
+        <v>38443.869351643603</v>
+      </c>
+      <c r="CL63">
+        <v>14744.6727897573</v>
+      </c>
+      <c r="CM63">
+        <v>3258.0584405297</v>
+      </c>
+      <c r="CN63">
+        <v>135231.911362385</v>
+      </c>
+      <c r="CO63">
+        <v>47611.762565823999</v>
+      </c>
+      <c r="CP63">
+        <v>35966</v>
+      </c>
+      <c r="CQ63">
+        <v>37302.315557200302</v>
+      </c>
+      <c r="CR63">
+        <v>988645.769778591</v>
+      </c>
+      <c r="CS63">
+        <v>26822.365013261999</v>
+      </c>
+      <c r="CT63">
+        <v>10208</v>
+      </c>
+      <c r="CU63">
+        <v>17413.934491721498</v>
+      </c>
+      <c r="CV63">
+        <v>9149.8158077048301</v>
+      </c>
+      <c r="CW63">
+        <v>51225.439156749802</v>
+      </c>
+      <c r="CX63">
+        <v>81202.498094883107</v>
+      </c>
+      <c r="CY63">
+        <v>30527.606787677902</v>
+      </c>
+      <c r="CZ63">
+        <v>1700.21027233635</v>
+      </c>
+      <c r="DA63">
+        <v>3888.8744747391702</v>
+      </c>
+      <c r="DB63">
+        <v>2798.4322185823198</v>
+      </c>
+      <c r="DC63">
+        <v>109418.704697893</v>
+      </c>
+      <c r="DD63">
+        <v>17768.278770677</v>
+      </c>
+      <c r="DE63">
+        <v>3221.9833815858601</v>
+      </c>
+      <c r="DF63">
+        <v>402.68138029018797</v>
+      </c>
+      <c r="DG63">
+        <v>2829.5529742843901</v>
+      </c>
+      <c r="DH63">
+        <v>2202.5451255266298</v>
+      </c>
+      <c r="DI63">
+        <v>30205.635081517001</v>
+      </c>
+      <c r="DJ63">
+        <v>3453.2978976401</v>
+      </c>
+      <c r="DK63">
+        <v>896.75372440994704</v>
+      </c>
+      <c r="DL63">
+        <v>11595.5534842037</v>
+      </c>
+      <c r="DM63">
+        <v>10072.4743839522</v>
+      </c>
+      <c r="DN63">
+        <v>18108</v>
+      </c>
+      <c r="DO63">
+        <v>77140.949755969399</v>
+      </c>
+      <c r="DP63">
+        <v>1724326.4974106699</v>
+      </c>
+      <c r="DQ63">
+        <v>52007.495998250299</v>
+      </c>
+      <c r="DR63">
+        <v>5672</v>
+      </c>
+      <c r="DS63">
+        <v>6473.0942869851997</v>
+      </c>
+      <c r="DT63">
+        <v>49051.291036599403</v>
+      </c>
+      <c r="DU63">
+        <v>11786.454521539201</v>
+      </c>
+      <c r="DV63">
+        <v>373916.72821805999</v>
+      </c>
+      <c r="DW63">
+        <v>950864.36707329005</v>
+      </c>
+      <c r="DX63">
+        <v>7768</v>
+      </c>
+      <c r="DY63">
+        <v>1044.4543378421699</v>
+      </c>
+      <c r="DZ63">
+        <v>29556.406564430799</v>
+      </c>
+      <c r="EA63">
+        <v>8549.7339568707303</v>
+      </c>
+      <c r="EB63">
+        <v>72843.710174397507</v>
+      </c>
+      <c r="EC63">
+        <v>2695406.2388326498</v>
+      </c>
+      <c r="ED63">
+        <v>153435.34526045099</v>
+      </c>
+      <c r="EE63">
+        <v>139875.963489427</v>
+      </c>
+      <c r="EF63">
+        <v>23925.389367257401</v>
+      </c>
+      <c r="EG63">
+        <v>36308</v>
+      </c>
+      <c r="EH63">
+        <v>5455812.1296187202</v>
+      </c>
+      <c r="EI63">
+        <v>9424.3712942663205</v>
+      </c>
+      <c r="EJ63">
+        <v>20132.8944049327</v>
+      </c>
+      <c r="EK63">
+        <v>4149.0336358677796</v>
+      </c>
+      <c r="EL63">
+        <v>8459.5964726240509</v>
+      </c>
+      <c r="EM63">
+        <v>82291.344016874704</v>
+      </c>
+      <c r="EN63">
+        <v>64241.880708649398</v>
+      </c>
+      <c r="EO63">
+        <v>407850.63474825001</v>
+      </c>
+      <c r="EP63">
+        <v>15149.361625159599</v>
+      </c>
+      <c r="EQ63">
+        <v>8423.7320966482694</v>
+      </c>
+      <c r="ER63">
+        <v>12903.729398563801</v>
+      </c>
+      <c r="ES63">
+        <v>17319.543324385701</v>
+      </c>
+      <c r="ET63">
+        <v>1414.6625260465601</v>
+      </c>
+      <c r="EU63">
+        <v>122861.590270453</v>
+      </c>
+      <c r="EV63">
+        <v>34211.682088430302</v>
+      </c>
+      <c r="EW63">
+        <v>11124765.531217899</v>
+      </c>
+      <c r="EX63">
+        <v>63581.508916196799</v>
+      </c>
+      <c r="EY63">
+        <v>44982.357420496897</v>
+      </c>
+      <c r="EZ63">
+        <v>2642.0853676072402</v>
+      </c>
+      <c r="FA63">
+        <v>4246649.1768774604</v>
+      </c>
+      <c r="FB63">
+        <v>1024801.34150002</v>
+      </c>
+      <c r="FC63">
+        <v>51340.761923423401</v>
+      </c>
+      <c r="FD63">
+        <v>69904.888507462703</v>
+      </c>
+      <c r="FE63">
+        <v>323153.84142722102</v>
+      </c>
+      <c r="FF63">
+        <v>7154.7126053579896</v>
+      </c>
+      <c r="FG63">
+        <v>23582.284111823501</v>
+      </c>
+      <c r="FH63">
+        <v>236627.590221502</v>
+      </c>
+      <c r="FI63">
+        <v>2209.4020835133401</v>
+      </c>
+      <c r="FJ63">
+        <v>138214.26576101501</v>
+      </c>
+      <c r="FK63">
+        <v>8951.5243612816193</v>
+      </c>
+      <c r="FL63">
+        <v>28106</v>
+      </c>
+      <c r="FM63">
+        <v>1027.2367145329199</v>
+      </c>
+      <c r="FN63">
+        <v>1080265.93772475</v>
+      </c>
+      <c r="FO63">
+        <v>23242.636278334601</v>
+      </c>
+      <c r="FP63">
+        <v>7542.2935222236601</v>
+      </c>
+      <c r="FQ63">
+        <v>5957.7942945507803</v>
+      </c>
+      <c r="FR63">
+        <v>147674</v>
+      </c>
+      <c r="FS63">
+        <v>98388.416339614705</v>
+      </c>
+      <c r="FT63">
+        <v>33697.022800341598</v>
+      </c>
+      <c r="FU63">
+        <v>624265.827106599</v>
+      </c>
+      <c r="FV63">
+        <v>939.72364757473997</v>
+      </c>
+      <c r="FW63">
+        <v>181416.656953111</v>
+      </c>
+      <c r="FX63">
+        <v>24220.008193062102</v>
+      </c>
+      <c r="FY63">
+        <v>5315.1120747968398</v>
+      </c>
+      <c r="FZ63">
+        <v>12562.992176792501</v>
+      </c>
+      <c r="GA63">
+        <v>39058.581449017998</v>
+      </c>
+      <c r="GB63">
+        <v>1856068</v>
+      </c>
+      <c r="GC63">
+        <v>9550083.7092249002</v>
+      </c>
+      <c r="GD63">
+        <v>15624.976549622001</v>
+      </c>
+      <c r="GE63">
+        <v>43328</v>
+      </c>
+      <c r="GF63">
+        <v>83252</v>
+      </c>
+      <c r="GG63">
+        <v>824255.336882759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64">
+        <v>8303.8436386069498</v>
+      </c>
+      <c r="C64">
+        <v>7130.8410551673996</v>
+      </c>
+      <c r="D64">
+        <v>5525.8938625549899</v>
+      </c>
+      <c r="E64">
+        <v>12993.0402946536</v>
+      </c>
+      <c r="F64">
+        <v>8416.128868455</v>
+      </c>
+      <c r="G64">
+        <v>106253.407657155</v>
+      </c>
+      <c r="H64">
+        <v>457179.84006665502</v>
+      </c>
+      <c r="I64">
+        <v>11305.0106236026</v>
+      </c>
+      <c r="J64">
+        <v>19500.820219907</v>
+      </c>
+      <c r="K64">
+        <v>44062.670823218599</v>
+      </c>
+      <c r="L64">
+        <v>8352.9684266654695</v>
+      </c>
+      <c r="M64">
+        <v>8802.1093460576903</v>
+      </c>
+      <c r="N64">
+        <v>6409.7747798796199</v>
+      </c>
+      <c r="O64">
+        <v>8332.3173577472007</v>
+      </c>
+      <c r="P64">
+        <v>19416.466938893402</v>
+      </c>
+      <c r="Q64">
+        <v>1673.9305314517701</v>
+      </c>
+      <c r="R64">
+        <v>7616.0966057876103</v>
+      </c>
+      <c r="S64">
+        <v>10577.6195430301</v>
+      </c>
+      <c r="T64">
+        <v>6777.4253568786198</v>
+      </c>
+      <c r="U64">
+        <v>10246.027223634999</v>
+      </c>
+      <c r="V64">
+        <v>6070.8364599378801</v>
+      </c>
+      <c r="W64">
+        <v>2886544.1995743001</v>
+      </c>
+      <c r="X64">
+        <v>2292.9175891484501</v>
+      </c>
+      <c r="Y64">
+        <v>56053.272316718299</v>
+      </c>
+      <c r="Z64">
+        <v>1647.8519650630799</v>
+      </c>
+      <c r="AA64">
+        <v>689529.94896486599</v>
+      </c>
+      <c r="AB64">
+        <v>3665.5424283696302</v>
+      </c>
+      <c r="AC64">
+        <v>15819.699674866501</v>
+      </c>
+      <c r="AD64">
+        <v>1601.81898205116</v>
+      </c>
+      <c r="AE64">
+        <v>3553.8346267161801</v>
+      </c>
+      <c r="AF64">
+        <v>34287.347608133401</v>
+      </c>
+      <c r="AG64">
+        <v>3894.14651182743</v>
+      </c>
+      <c r="AH64">
+        <v>8523.7068700299405</v>
+      </c>
+      <c r="AI64">
+        <v>21607.888918885099</v>
+      </c>
+      <c r="AJ64">
+        <v>2185.9648047119099</v>
+      </c>
+      <c r="AK64">
+        <v>896</v>
+      </c>
+      <c r="AL64">
+        <v>914.64011069794503</v>
+      </c>
+      <c r="AM64">
+        <v>3644</v>
+      </c>
+      <c r="AN64">
+        <v>2854.5010775435298</v>
+      </c>
+      <c r="AO64">
+        <v>6100.2460028388696</v>
+      </c>
+      <c r="AP64">
+        <v>79974.410617963207</v>
+      </c>
+      <c r="AQ64">
+        <v>1242.1553551941099</v>
+      </c>
+      <c r="AR64">
+        <v>1069655.5613707399</v>
+      </c>
+      <c r="AS64">
+        <v>2779.59487205602</v>
+      </c>
+      <c r="AT64">
+        <v>26671.251002345802</v>
+      </c>
+      <c r="AU64">
+        <v>14471.785444601899</v>
+      </c>
+      <c r="AV64">
+        <v>35776</v>
+      </c>
+      <c r="AW64">
+        <v>11982.4118177322</v>
+      </c>
+      <c r="AX64">
+        <v>2954.1102397132399</v>
+      </c>
+      <c r="AY64">
+        <v>3616.51658029703</v>
+      </c>
+      <c r="AZ64">
+        <v>2351.2193722482202</v>
+      </c>
+      <c r="BA64">
+        <v>4723.1413569318302</v>
+      </c>
+      <c r="BB64">
+        <v>4900.1976088377796</v>
+      </c>
+      <c r="BC64">
+        <v>112196.026608239</v>
+      </c>
+      <c r="BD64">
+        <v>57765.457678316401</v>
+      </c>
+      <c r="BE64">
+        <v>203620.88189593301</v>
+      </c>
+      <c r="BF64">
+        <v>212604.14493868599</v>
+      </c>
+      <c r="BG64">
+        <v>740663.75089540204</v>
+      </c>
+      <c r="BH64">
+        <v>1080218</v>
+      </c>
+      <c r="BI64">
+        <v>769.30950208745196</v>
+      </c>
+      <c r="BJ64">
+        <v>20441.256018154301</v>
+      </c>
+      <c r="BK64">
+        <v>5990.3130460763396</v>
+      </c>
+      <c r="BL64">
+        <v>7440.6509341500296</v>
+      </c>
+      <c r="BM64">
+        <v>2726.5012697213101</v>
+      </c>
+      <c r="BN64">
+        <v>3258.0261223099701</v>
+      </c>
+      <c r="BO64">
+        <v>11660</v>
+      </c>
+      <c r="BP64">
+        <v>36655.864175240902</v>
+      </c>
+      <c r="BQ64">
+        <v>624123.91176179703</v>
+      </c>
+      <c r="BR64">
+        <v>59987.207485134699</v>
+      </c>
+      <c r="BS64">
+        <v>8563.1597781786295</v>
+      </c>
+      <c r="BT64">
+        <v>19455.0347011616</v>
+      </c>
+      <c r="BU64">
+        <v>42588.086058118497</v>
+      </c>
+      <c r="BV64">
+        <v>17968600.783961602</v>
+      </c>
+      <c r="BW64">
+        <v>440670</v>
+      </c>
+      <c r="BX64">
+        <v>28393.989848708901</v>
+      </c>
+      <c r="BY64">
+        <v>31910</v>
+      </c>
+      <c r="BZ64">
+        <v>131745.818873015</v>
+      </c>
+      <c r="CA64">
+        <v>602621.59564364201</v>
+      </c>
+      <c r="CB64">
+        <v>466049.28281767498</v>
+      </c>
+      <c r="CC64">
+        <v>587994.89742395503</v>
+      </c>
+      <c r="CD64">
+        <v>151004.63858127801</v>
+      </c>
+      <c r="CE64">
+        <v>158360.16038754</v>
+      </c>
+      <c r="CF64">
+        <v>3874.6929800258199</v>
+      </c>
+      <c r="CG64">
+        <v>8419.2141831827303</v>
+      </c>
+      <c r="CH64">
+        <v>15705.8965249967</v>
+      </c>
+      <c r="CI64">
+        <v>32260.149701124999</v>
+      </c>
+      <c r="CJ64">
+        <v>2478.0183737204102</v>
+      </c>
+      <c r="CK64">
+        <v>36308.121450355997</v>
+      </c>
+      <c r="CL64">
+        <v>5499.6247576056603</v>
+      </c>
+      <c r="CM64">
+        <v>3153.6598870344701</v>
+      </c>
+      <c r="CN64">
+        <v>29602.4915523288</v>
+      </c>
+      <c r="CO64">
+        <v>21652.215211559698</v>
+      </c>
+      <c r="CP64">
+        <v>27392</v>
+      </c>
+      <c r="CQ64">
+        <v>20321.872145781599</v>
+      </c>
+      <c r="CR64">
+        <v>498978.760589963</v>
+      </c>
+      <c r="CS64">
+        <v>14167.405104503099</v>
+      </c>
+      <c r="CT64">
+        <v>4910</v>
+      </c>
+      <c r="CU64">
+        <v>13420.8920827972</v>
+      </c>
+      <c r="CV64">
+        <v>2092.6702224373698</v>
+      </c>
+      <c r="CW64">
+        <v>46524.292970075701</v>
+      </c>
+      <c r="CX64">
+        <v>74426.220763453501</v>
+      </c>
+      <c r="CY64">
+        <v>18001.798375275899</v>
+      </c>
+      <c r="CZ64">
+        <v>2276.3406247801499</v>
+      </c>
+      <c r="DA64">
+        <v>3503.65006260259</v>
+      </c>
+      <c r="DB64">
+        <v>2741.3784519884498</v>
+      </c>
+      <c r="DC64">
+        <v>174696.847982142</v>
+      </c>
+      <c r="DD64">
+        <v>84991.430874071506</v>
+      </c>
+      <c r="DE64">
+        <v>2697.8274334059902</v>
+      </c>
+      <c r="DF64">
+        <v>920.30595216433403</v>
+      </c>
+      <c r="DG64">
+        <v>1846.3428050098801</v>
+      </c>
+      <c r="DH64">
+        <v>2393.5770518074501</v>
+      </c>
+      <c r="DI64">
+        <v>21647.6188428852</v>
+      </c>
+      <c r="DJ64">
+        <v>2786.3190823489199</v>
+      </c>
+      <c r="DK64">
+        <v>2603.8919378138598</v>
+      </c>
+      <c r="DL64">
+        <v>10134.994463418299</v>
+      </c>
+      <c r="DM64">
+        <v>23507.965542720201</v>
+      </c>
+      <c r="DN64">
+        <v>15826</v>
+      </c>
+      <c r="DO64">
+        <v>52404.069333612999</v>
+      </c>
+      <c r="DP64">
+        <v>1266177.8067135899</v>
+      </c>
+      <c r="DQ64">
+        <v>40253.238571139897</v>
+      </c>
+      <c r="DR64">
+        <v>7654</v>
+      </c>
+      <c r="DS64">
+        <v>5572.1545312097296</v>
+      </c>
+      <c r="DT64">
+        <v>34699.472569669299</v>
+      </c>
+      <c r="DU64">
+        <v>9979.0487537454592</v>
+      </c>
+      <c r="DV64">
+        <v>354186.21298852598</v>
+      </c>
+      <c r="DW64">
+        <v>935214.06600731704</v>
+      </c>
+      <c r="DX64">
+        <v>8062</v>
+      </c>
+      <c r="DY64">
+        <v>1339.5201671437801</v>
+      </c>
+      <c r="DZ64">
+        <v>39965.897973607804</v>
+      </c>
+      <c r="EA64">
+        <v>8652.9805251657508</v>
+      </c>
+      <c r="EB64">
+        <v>64682.041843801599</v>
+      </c>
+      <c r="EC64">
+        <v>2400515.5845776801</v>
+      </c>
+      <c r="ED64">
+        <v>141479.72465546601</v>
+      </c>
+      <c r="EE64">
+        <v>139670.544733966</v>
+      </c>
+      <c r="EF64">
+        <v>19773.4218221435</v>
+      </c>
+      <c r="EG64">
+        <v>33986</v>
+      </c>
+      <c r="EH64">
+        <v>7944604.1479394203</v>
+      </c>
+      <c r="EI64">
+        <v>6467.5428910062501</v>
+      </c>
+      <c r="EJ64">
+        <v>18790.371471207101</v>
+      </c>
+      <c r="EK64">
+        <v>3377.45635062784</v>
+      </c>
+      <c r="EL64">
+        <v>6730.2506835367803</v>
+      </c>
+      <c r="EM64">
+        <v>71219.905241686502</v>
+      </c>
+      <c r="EN64">
+        <v>71024.248290647694</v>
+      </c>
+      <c r="EO64">
+        <v>341934.01619307999</v>
+      </c>
+      <c r="EP64">
+        <v>13296.5647653467</v>
+      </c>
+      <c r="EQ64">
+        <v>7254.0256952929003</v>
+      </c>
+      <c r="ER64">
+        <v>11730.297605689</v>
+      </c>
+      <c r="ES64">
+        <v>21957.636478835801</v>
+      </c>
+      <c r="ET64">
+        <v>1380.7574357878</v>
+      </c>
+      <c r="EU64">
+        <v>107845.463779413</v>
+      </c>
+      <c r="EV64">
+        <v>33202.440271994499</v>
+      </c>
+      <c r="EW64">
+        <v>10458832.863989601</v>
+      </c>
+      <c r="EX64">
+        <v>72180.425584832803</v>
+      </c>
+      <c r="EY64">
+        <v>25285.943369338998</v>
+      </c>
+      <c r="EZ64">
+        <v>2167.5783883895901</v>
+      </c>
+      <c r="FA64">
+        <v>3748062.9053198998</v>
+      </c>
+      <c r="FB64">
+        <v>1202393.9188069301</v>
+      </c>
+      <c r="FC64">
+        <v>50119.502070801303</v>
+      </c>
+      <c r="FD64">
+        <v>67806.195967196705</v>
+      </c>
+      <c r="FE64">
+        <v>342680.12226035801</v>
+      </c>
+      <c r="FF64">
+        <v>6664.8908765022197</v>
+      </c>
+      <c r="FG64">
+        <v>49510.8876175939</v>
+      </c>
+      <c r="FH64">
+        <v>729661.53657136997</v>
+      </c>
+      <c r="FI64">
+        <v>2337.4397271731</v>
+      </c>
+      <c r="FJ64">
+        <v>142830.321280159</v>
+      </c>
+      <c r="FK64">
+        <v>6315.8433756740596</v>
+      </c>
+      <c r="FL64">
+        <v>24406</v>
+      </c>
+      <c r="FM64">
+        <v>1806.8121741181701</v>
+      </c>
+      <c r="FN64">
+        <v>1095201.2397266401</v>
+      </c>
+      <c r="FO64">
+        <v>25475.002214738099</v>
+      </c>
+      <c r="FP64">
+        <v>8358.2317968145999</v>
+      </c>
+      <c r="FQ64">
+        <v>7200.2903640065297</v>
+      </c>
+      <c r="FR64">
+        <v>63598</v>
+      </c>
+      <c r="FS64">
+        <v>62246.795388557599</v>
+      </c>
+      <c r="FT64">
+        <v>6173.2396630919902</v>
+      </c>
+      <c r="FU64">
+        <v>131784.704112507</v>
+      </c>
+      <c r="FV64">
+        <v>1944.77483322747</v>
+      </c>
+      <c r="FW64">
+        <v>108722.529366528</v>
+      </c>
+      <c r="FX64">
+        <v>18434.3444822403</v>
+      </c>
+      <c r="FY64">
+        <v>3732.9965948312702</v>
+      </c>
+      <c r="FZ64">
+        <v>7345.7557553046199</v>
+      </c>
+      <c r="GA64">
+        <v>34722.452873794697</v>
+      </c>
+      <c r="GB64">
+        <v>1544586</v>
+      </c>
+      <c r="GC64">
+        <v>8851456.9501191992</v>
+      </c>
+      <c r="GD64">
+        <v>38526.115034897499</v>
+      </c>
+      <c r="GE64">
+        <v>40272</v>
+      </c>
+      <c r="GF64">
+        <v>91444</v>
+      </c>
+      <c r="GG64">
+        <v>913863.36480240896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65">
+        <v>6221.2664664886697</v>
+      </c>
+      <c r="C65">
+        <v>3758.9614564103199</v>
+      </c>
+      <c r="D65">
+        <v>22974.512719977502</v>
+      </c>
+      <c r="E65">
+        <v>7703.5237497530998</v>
+      </c>
+      <c r="F65">
+        <v>8210.5115435477401</v>
+      </c>
+      <c r="G65">
+        <v>83836.928796681794</v>
+      </c>
+      <c r="H65">
+        <v>686420.21768357896</v>
+      </c>
+      <c r="I65">
+        <v>15294.456578650401</v>
+      </c>
+      <c r="J65">
+        <v>34495.959010282197</v>
+      </c>
+      <c r="K65">
+        <v>34208.593145777202</v>
+      </c>
+      <c r="L65">
+        <v>4315.8817211095402</v>
+      </c>
+      <c r="M65">
+        <v>11800.9038836122</v>
+      </c>
+      <c r="N65">
+        <v>13792.8259693047</v>
+      </c>
+      <c r="O65">
+        <v>9301.4377183043907</v>
+      </c>
+      <c r="P65">
+        <v>39754.243569412101</v>
+      </c>
+      <c r="Q65">
+        <v>3101.3805590083198</v>
+      </c>
+      <c r="R65">
+        <v>8846.2898720979902</v>
+      </c>
+      <c r="S65">
+        <v>28738.740642688699</v>
+      </c>
+      <c r="T65">
+        <v>5755.5524157435802</v>
+      </c>
+      <c r="U65">
+        <v>12278.712750160699</v>
+      </c>
+      <c r="V65">
+        <v>5195.1057057215003</v>
+      </c>
+      <c r="W65">
+        <v>3553395.12077547</v>
+      </c>
+      <c r="X65">
+        <v>4505.1839239711098</v>
+      </c>
+      <c r="Y65">
+        <v>69124.867307156295</v>
+      </c>
+      <c r="Z65">
+        <v>4669.1065480124998</v>
+      </c>
+      <c r="AA65">
+        <v>932178.40720736003</v>
+      </c>
+      <c r="AB65">
+        <v>9056.7178632643099</v>
+      </c>
+      <c r="AC65">
+        <v>22051.180064694901</v>
+      </c>
+      <c r="AD65">
+        <v>1866.3799399466</v>
+      </c>
+      <c r="AE65">
+        <v>10793.1884947787</v>
+      </c>
+      <c r="AF65">
+        <v>89110.378491159994</v>
+      </c>
+      <c r="AG65">
+        <v>4967.85184514103</v>
+      </c>
+      <c r="AH65">
+        <v>17499.059948906201</v>
+      </c>
+      <c r="AI65">
+        <v>25614.455727543002</v>
+      </c>
+      <c r="AJ65">
+        <v>2818.6278908947502</v>
+      </c>
+      <c r="AK65">
+        <v>958</v>
+      </c>
+      <c r="AL65">
+        <v>867.03786109882401</v>
+      </c>
+      <c r="AM65">
+        <v>4354</v>
+      </c>
+      <c r="AN65">
+        <v>5291.0018569228096</v>
+      </c>
+      <c r="AO65">
+        <v>17891.504251901901</v>
+      </c>
+      <c r="AP65">
+        <v>67446.731933141302</v>
+      </c>
+      <c r="AQ65">
+        <v>1731.81336120437</v>
+      </c>
+      <c r="AR65">
+        <v>839215.35095138801</v>
+      </c>
+      <c r="AS65">
+        <v>5192.1925276832199</v>
+      </c>
+      <c r="AT65">
+        <v>189902.696209363</v>
+      </c>
+      <c r="AU65">
+        <v>16786.693176273799</v>
+      </c>
+      <c r="AV65">
+        <v>36296</v>
+      </c>
+      <c r="AW65">
+        <v>13747.0966276825</v>
+      </c>
+      <c r="AX65">
+        <v>11078.1029289745</v>
+      </c>
+      <c r="AY65">
+        <v>9983.0106462932108</v>
+      </c>
+      <c r="AZ65">
+        <v>9098.7403746438795</v>
+      </c>
+      <c r="BA65">
+        <v>7793.0426127438805</v>
+      </c>
+      <c r="BB65">
+        <v>7147.6305955112803</v>
+      </c>
+      <c r="BC65">
+        <v>351236.99912388797</v>
+      </c>
+      <c r="BD65">
+        <v>51813.968935439603</v>
+      </c>
+      <c r="BE65">
+        <v>102987.006392449</v>
+      </c>
+      <c r="BF65">
+        <v>224796.70043449599</v>
+      </c>
+      <c r="BG65">
+        <v>780719.33281287597</v>
+      </c>
+      <c r="BH65">
+        <v>1278364</v>
+      </c>
+      <c r="BI65">
+        <v>1809.7747386892499</v>
+      </c>
+      <c r="BJ65">
+        <v>32764.074550892001</v>
+      </c>
+      <c r="BK65">
+        <v>9108.5098819066607</v>
+      </c>
+      <c r="BL65">
+        <v>7020.86497785555</v>
+      </c>
+      <c r="BM65">
+        <v>3030.53045293063</v>
+      </c>
+      <c r="BN65">
+        <v>2925.3604074398099</v>
+      </c>
+      <c r="BO65">
+        <v>9936</v>
+      </c>
+      <c r="BP65">
+        <v>50598.983847350602</v>
+      </c>
+      <c r="BQ65">
+        <v>467335.82042099501</v>
+      </c>
+      <c r="BR65">
+        <v>134812.06281385699</v>
+      </c>
+      <c r="BS65">
+        <v>16753.516348727699</v>
+      </c>
+      <c r="BT65">
+        <v>27843.6594161094</v>
+      </c>
+      <c r="BU65">
+        <v>43921.142316358397</v>
+      </c>
+      <c r="BV65">
+        <v>25468727.532048799</v>
+      </c>
+      <c r="BW65">
+        <v>499628</v>
+      </c>
+      <c r="BX65">
+        <v>48692.988708527402</v>
+      </c>
+      <c r="BY65">
+        <v>56618</v>
+      </c>
+      <c r="BZ65">
+        <v>90866.604917377597</v>
+      </c>
+      <c r="CA65">
+        <v>590296.42093914095</v>
+      </c>
+      <c r="CB65">
+        <v>426085.90576483798</v>
+      </c>
+      <c r="CC65">
+        <v>409567.67727351398</v>
+      </c>
+      <c r="CD65">
+        <v>98954.479173991305</v>
+      </c>
+      <c r="CE65">
+        <v>46763.072812364902</v>
+      </c>
+      <c r="CF65">
+        <v>8278.7567833657195</v>
+      </c>
+      <c r="CG65">
+        <v>20682.923984220601</v>
+      </c>
+      <c r="CH65">
+        <v>12682.4124863874</v>
+      </c>
+      <c r="CI65">
+        <v>23765.691445204899</v>
+      </c>
+      <c r="CJ65">
+        <v>4545.9975620643099</v>
+      </c>
+      <c r="CK65">
+        <v>50762.958560505802</v>
+      </c>
+      <c r="CL65">
+        <v>8394.2743198778007</v>
+      </c>
+      <c r="CM65">
+        <v>3515.8500652805301</v>
+      </c>
+      <c r="CN65">
+        <v>154769.18549074201</v>
+      </c>
+      <c r="CO65">
+        <v>54822.359337976901</v>
+      </c>
+      <c r="CP65">
+        <v>26784</v>
+      </c>
+      <c r="CQ65">
+        <v>28506.662050365201</v>
+      </c>
+      <c r="CR65">
+        <v>1254631.7852612401</v>
+      </c>
+      <c r="CS65">
+        <v>49469.277622500696</v>
+      </c>
+      <c r="CT65">
+        <v>8954</v>
+      </c>
+      <c r="CU65">
+        <v>26411.222982211701</v>
+      </c>
+      <c r="CV65">
+        <v>9348.2835448078695</v>
+      </c>
+      <c r="CW65">
+        <v>27872.172683919802</v>
+      </c>
+      <c r="CX65">
+        <v>84875.351031138096</v>
+      </c>
+      <c r="CY65">
+        <v>27857.873060330101</v>
+      </c>
+      <c r="CZ65">
+        <v>2902.2252955016102</v>
+      </c>
+      <c r="DA65">
+        <v>4536.2588718033403</v>
+      </c>
+      <c r="DB65">
+        <v>4962.9651575278904</v>
+      </c>
+      <c r="DC65">
+        <v>152008.50271756001</v>
+      </c>
+      <c r="DD65">
+        <v>32210.312921248998</v>
+      </c>
+      <c r="DE65">
+        <v>4382.3416498299903</v>
+      </c>
+      <c r="DF65">
+        <v>1345.1774269094899</v>
+      </c>
+      <c r="DG65">
+        <v>5123.2027443107399</v>
+      </c>
+      <c r="DH65">
+        <v>4167.4516123421899</v>
+      </c>
+      <c r="DI65">
+        <v>66876.952471393393</v>
+      </c>
+      <c r="DJ65">
+        <v>7767.2503431950799</v>
+      </c>
+      <c r="DK65">
+        <v>2901.3566662774901</v>
+      </c>
+      <c r="DL65">
+        <v>12722.7293822964</v>
+      </c>
+      <c r="DM65">
+        <v>17481.953794860299</v>
+      </c>
+      <c r="DN65">
+        <v>24560</v>
+      </c>
+      <c r="DO65">
+        <v>107649.287848215</v>
+      </c>
+      <c r="DP65">
+        <v>2108801.5451904498</v>
+      </c>
+      <c r="DQ65">
+        <v>71820.700150533303</v>
+      </c>
+      <c r="DR65">
+        <v>9152</v>
+      </c>
+      <c r="DS65">
+        <v>5045.2715826978601</v>
+      </c>
+      <c r="DT65">
+        <v>102695.435306568</v>
+      </c>
+      <c r="DU65">
+        <v>12071.146036308501</v>
+      </c>
+      <c r="DV65">
+        <v>486150.044190249</v>
+      </c>
+      <c r="DW65">
+        <v>1535190.23622075</v>
+      </c>
+      <c r="DX65">
+        <v>13288</v>
+      </c>
+      <c r="DY65">
+        <v>1969.9322768945301</v>
+      </c>
+      <c r="DZ65">
+        <v>49409.786022589396</v>
+      </c>
+      <c r="EA65">
+        <v>9981.3297101846401</v>
+      </c>
+      <c r="EB65">
+        <v>70746.789944548102</v>
+      </c>
+      <c r="EC65">
+        <v>3101531.1499970998</v>
+      </c>
+      <c r="ED65">
+        <v>96154.026377645903</v>
+      </c>
+      <c r="EE65">
+        <v>79560.051881004794</v>
+      </c>
+      <c r="EF65">
+        <v>45649.897296569303</v>
+      </c>
+      <c r="EG65">
+        <v>44766</v>
+      </c>
+      <c r="EH65">
+        <v>4302882.7982508</v>
+      </c>
+      <c r="EI65">
+        <v>5400.6974851552004</v>
+      </c>
+      <c r="EJ65">
+        <v>26077.4472235822</v>
+      </c>
+      <c r="EK65">
+        <v>6492.0855519788802</v>
+      </c>
+      <c r="EL65">
+        <v>8132.3174608066902</v>
+      </c>
+      <c r="EM65">
+        <v>61902.257733175102</v>
+      </c>
+      <c r="EN65">
+        <v>73612.760662942703</v>
+      </c>
+      <c r="EO65">
+        <v>198585.49713077</v>
+      </c>
+      <c r="EP65">
+        <v>21135.075946717701</v>
+      </c>
+      <c r="EQ65">
+        <v>8396.1996121529992</v>
+      </c>
+      <c r="ER65">
+        <v>14829.627025448201</v>
+      </c>
+      <c r="ES65">
+        <v>14661.9578773007</v>
+      </c>
+      <c r="ET65">
+        <v>2862.9527187477602</v>
+      </c>
+      <c r="EU65">
+        <v>177196.92363918401</v>
+      </c>
+      <c r="EV65">
+        <v>68349.578456477102</v>
+      </c>
+      <c r="EW65">
+        <v>5810344.7336928695</v>
+      </c>
+      <c r="EX65">
+        <v>106228.70067536199</v>
+      </c>
+      <c r="EY65">
+        <v>46217.737953087999</v>
+      </c>
+      <c r="EZ65">
+        <v>1640.14529036618</v>
+      </c>
+      <c r="FA65">
+        <v>2198909.2929857802</v>
+      </c>
+      <c r="FB65">
+        <v>760960.14068816695</v>
+      </c>
+      <c r="FC65">
+        <v>85600.2867135626</v>
+      </c>
+      <c r="FD65">
+        <v>196257.10779252401</v>
+      </c>
+      <c r="FE65">
+        <v>385100.51186894201</v>
+      </c>
+      <c r="FF65">
+        <v>10593.5220841312</v>
+      </c>
+      <c r="FG65">
+        <v>77086.828647210306</v>
+      </c>
+      <c r="FH65">
+        <v>1390415.8730903501</v>
+      </c>
+      <c r="FI65">
+        <v>2812.2590462606199</v>
+      </c>
+      <c r="FJ65">
+        <v>457368.39826158498</v>
+      </c>
+      <c r="FK65">
+        <v>8126.6586936248104</v>
+      </c>
+      <c r="FL65">
+        <v>27508</v>
+      </c>
+      <c r="FM65">
+        <v>1018.08894839187</v>
+      </c>
+      <c r="FN65">
+        <v>529436.10666173103</v>
+      </c>
+      <c r="FO65">
+        <v>30378.311721197901</v>
+      </c>
+      <c r="FP65">
+        <v>7951.1295874214102</v>
+      </c>
+      <c r="FQ65">
+        <v>37464.115617945899</v>
+      </c>
+      <c r="FR65">
+        <v>266244</v>
+      </c>
+      <c r="FS65">
+        <v>328781.97836781997</v>
+      </c>
+      <c r="FT65">
+        <v>49643.661316066296</v>
+      </c>
+      <c r="FU65">
+        <v>1256715.5430494901</v>
+      </c>
+      <c r="FV65">
+        <v>2687.7548237545302</v>
+      </c>
+      <c r="FW65">
+        <v>93155.202340927295</v>
+      </c>
+      <c r="FX65">
+        <v>27866.922385392201</v>
+      </c>
+      <c r="FY65">
+        <v>5491.5650549736802</v>
+      </c>
+      <c r="FZ65">
+        <v>19495.2579894927</v>
+      </c>
+      <c r="GA65">
+        <v>47402.540042154702</v>
+      </c>
+      <c r="GB65">
+        <v>1885426</v>
+      </c>
+      <c r="GC65">
+        <v>10085332.1233899</v>
+      </c>
+      <c r="GD65">
+        <v>30427.648717917298</v>
+      </c>
+      <c r="GE65">
+        <v>48106</v>
+      </c>
+      <c r="GF65">
+        <v>59314</v>
+      </c>
+      <c r="GG65">
+        <v>212431.39743008299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66">
+        <v>9399.8940154859993</v>
+      </c>
+      <c r="C66">
+        <v>9304.0460376459705</v>
+      </c>
+      <c r="D66">
+        <v>12457.5935918532</v>
+      </c>
+      <c r="E66">
+        <v>21891.6942571252</v>
+      </c>
+      <c r="F66">
+        <v>7908.4279092675097</v>
+      </c>
+      <c r="G66">
+        <v>81018.714696380805</v>
+      </c>
+      <c r="H66">
+        <v>581326.34649597702</v>
+      </c>
+      <c r="I66">
+        <v>7869.0444894525699</v>
+      </c>
+      <c r="J66">
+        <v>22085.186460638499</v>
+      </c>
+      <c r="K66">
+        <v>22833.3038045172</v>
+      </c>
+      <c r="L66">
+        <v>2706.5842690504401</v>
+      </c>
+      <c r="M66">
+        <v>8765.9193218345408</v>
+      </c>
+      <c r="N66">
+        <v>13159.714764418701</v>
+      </c>
+      <c r="O66">
+        <v>5750.2544620118697</v>
+      </c>
+      <c r="P66">
+        <v>50539.592388372199</v>
+      </c>
+      <c r="Q66">
+        <v>4495.3932011451298</v>
+      </c>
+      <c r="R66">
+        <v>7562.9929800343498</v>
+      </c>
+      <c r="S66">
+        <v>12498.648527724699</v>
+      </c>
+      <c r="T66">
+        <v>5500.1219696256103</v>
+      </c>
+      <c r="U66">
+        <v>11496.8872329485</v>
+      </c>
+      <c r="V66">
+        <v>3659.3883492155901</v>
+      </c>
+      <c r="W66">
+        <v>3623526.4362498499</v>
+      </c>
+      <c r="X66">
+        <v>1818.17815115858</v>
+      </c>
+      <c r="Y66">
+        <v>86958.338627465506</v>
+      </c>
+      <c r="Z66">
+        <v>2607.0175196687001</v>
+      </c>
+      <c r="AA66">
+        <v>892981.96122639498</v>
+      </c>
+      <c r="AB66">
+        <v>2512.09125904547</v>
+      </c>
+      <c r="AC66">
+        <v>27625.8633728022</v>
+      </c>
+      <c r="AD66">
+        <v>6914.7944951791696</v>
+      </c>
+      <c r="AE66">
+        <v>9483.4744787257405</v>
+      </c>
+      <c r="AF66">
+        <v>193423.24066885299</v>
+      </c>
+      <c r="AG66">
+        <v>3664.7559152839399</v>
+      </c>
+      <c r="AH66">
+        <v>7978.8751837057998</v>
+      </c>
+      <c r="AI66">
+        <v>38136.016187341404</v>
+      </c>
+      <c r="AJ66">
+        <v>2502.2255471778999</v>
+      </c>
+      <c r="AK66">
+        <v>918</v>
+      </c>
+      <c r="AL66">
+        <v>1520.66707528077</v>
+      </c>
+      <c r="AM66">
+        <v>4836</v>
+      </c>
+      <c r="AN66">
+        <v>5291.2503277833002</v>
+      </c>
+      <c r="AO66">
+        <v>3236.9284839319498</v>
+      </c>
+      <c r="AP66">
+        <v>29384.565864125801</v>
+      </c>
+      <c r="AQ66">
+        <v>1621.5121972239101</v>
+      </c>
+      <c r="AR66">
+        <v>596184.90359553404</v>
+      </c>
+      <c r="AS66">
+        <v>4519.1034372247796</v>
+      </c>
+      <c r="AT66">
+        <v>47048.237361557003</v>
+      </c>
+      <c r="AU66">
+        <v>22685.484753840399</v>
+      </c>
+      <c r="AV66">
+        <v>40286</v>
+      </c>
+      <c r="AW66">
+        <v>11652.6502051596</v>
+      </c>
+      <c r="AX66">
+        <v>5216.10933838238</v>
+      </c>
+      <c r="AY66">
+        <v>7009.5000561680299</v>
+      </c>
+      <c r="AZ66">
+        <v>4419.3256244433696</v>
+      </c>
+      <c r="BA66">
+        <v>3673.2911182304701</v>
+      </c>
+      <c r="BB66">
+        <v>9804.2560797059996</v>
+      </c>
+      <c r="BC66">
+        <v>327276.09526457899</v>
+      </c>
+      <c r="BD66">
+        <v>60451.5005504644</v>
+      </c>
+      <c r="BE66">
+        <v>184201.90090677599</v>
+      </c>
+      <c r="BF66">
+        <v>30102.4566415156</v>
+      </c>
+      <c r="BG66">
+        <v>624291.49231315497</v>
+      </c>
+      <c r="BH66">
+        <v>1142612</v>
+      </c>
+      <c r="BI66">
+        <v>1695.2478944826501</v>
+      </c>
+      <c r="BJ66">
+        <v>34862.3115613193</v>
+      </c>
+      <c r="BK66">
+        <v>5746.9780810060502</v>
+      </c>
+      <c r="BL66">
+        <v>8101.4650756036899</v>
+      </c>
+      <c r="BM66">
+        <v>2504.1830387710702</v>
+      </c>
+      <c r="BN66">
+        <v>3023.5716158761702</v>
+      </c>
+      <c r="BO66">
+        <v>14292</v>
+      </c>
+      <c r="BP66">
+        <v>49120.846936955997</v>
+      </c>
+      <c r="BQ66">
+        <v>432873.12318532402</v>
+      </c>
+      <c r="BR66">
+        <v>71682.268380212103</v>
+      </c>
+      <c r="BS66">
+        <v>6581.9004040670698</v>
+      </c>
+      <c r="BT66">
+        <v>24777.8819540404</v>
+      </c>
+      <c r="BU66">
+        <v>35198.936556480301</v>
+      </c>
+      <c r="BV66">
+        <v>24827048.7958478</v>
+      </c>
+      <c r="BW66">
+        <v>382702</v>
+      </c>
+      <c r="BX66">
+        <v>26496.581613265302</v>
+      </c>
+      <c r="BY66">
+        <v>24442</v>
+      </c>
+      <c r="BZ66">
+        <v>50161.216671421898</v>
+      </c>
+      <c r="CA66">
+        <v>312807.60047859198</v>
+      </c>
+      <c r="CB66">
+        <v>209105.31641852501</v>
+      </c>
+      <c r="CC66">
+        <v>190799.31229416799</v>
+      </c>
+      <c r="CD66">
+        <v>94497.043270457303</v>
+      </c>
+      <c r="CE66">
+        <v>14130.060213216801</v>
+      </c>
+      <c r="CF66">
+        <v>4256.9558239231001</v>
+      </c>
+      <c r="CG66">
+        <v>10865.0659908867</v>
+      </c>
+      <c r="CH66">
+        <v>14871.9896885737</v>
+      </c>
+      <c r="CI66">
+        <v>18366.4555911524</v>
+      </c>
+      <c r="CJ66">
+        <v>3373.7836424928801</v>
+      </c>
+      <c r="CK66">
+        <v>50550.342902214099</v>
+      </c>
+      <c r="CL66">
+        <v>8488.1359488657599</v>
+      </c>
+      <c r="CM66">
+        <v>4191.8281890656699</v>
+      </c>
+      <c r="CN66">
+        <v>41035.704210788601</v>
+      </c>
+      <c r="CO66">
+        <v>7754.3170093389299</v>
+      </c>
+      <c r="CP66">
+        <v>7896</v>
+      </c>
+      <c r="CQ66">
+        <v>9991.1973355262999</v>
+      </c>
+      <c r="CR66">
+        <v>172484.6679574</v>
+      </c>
+      <c r="CS66">
+        <v>12411.944169121</v>
+      </c>
+      <c r="CT66">
+        <v>3220</v>
+      </c>
+      <c r="CU66">
+        <v>26202.222665006098</v>
+      </c>
+      <c r="CV66">
+        <v>2018.28764658717</v>
+      </c>
+      <c r="CW66">
+        <v>14417.893946914</v>
+      </c>
+      <c r="CX66">
+        <v>60458.750453087901</v>
+      </c>
+      <c r="CY66">
+        <v>20739.702497713399</v>
+      </c>
+      <c r="CZ66">
+        <v>2537.8673381701301</v>
+      </c>
+      <c r="DA66">
+        <v>4736.5224708382702</v>
+      </c>
+      <c r="DB66">
+        <v>2421.9451759046101</v>
+      </c>
+      <c r="DC66">
+        <v>158370.25507847301</v>
+      </c>
+      <c r="DD66">
+        <v>143978.34183332199</v>
+      </c>
+      <c r="DE66">
+        <v>3102.8959047744802</v>
+      </c>
+      <c r="DF66">
+        <v>1834.05421012947</v>
+      </c>
+      <c r="DG66">
+        <v>5004.4510943557998</v>
+      </c>
+      <c r="DH66">
+        <v>3256.1707364939698</v>
+      </c>
+      <c r="DI66">
+        <v>37582.951859553898</v>
+      </c>
+      <c r="DJ66">
+        <v>8501.6485790087409</v>
+      </c>
+      <c r="DK66">
+        <v>2648.4313530650802</v>
+      </c>
+      <c r="DL66">
+        <v>15592.920073127199</v>
+      </c>
+      <c r="DM66">
+        <v>19474.4021280626</v>
+      </c>
+      <c r="DN66">
+        <v>21844</v>
+      </c>
+      <c r="DO66">
+        <v>123878.108738394</v>
+      </c>
+      <c r="DP66">
+        <v>2633816.0657897401</v>
+      </c>
+      <c r="DQ66">
+        <v>42446.541381330499</v>
+      </c>
+      <c r="DR66">
+        <v>13150</v>
+      </c>
+      <c r="DS66">
+        <v>6859.9313005362601</v>
+      </c>
+      <c r="DT66">
+        <v>71809.500336769997</v>
+      </c>
+      <c r="DU66">
+        <v>14851.4460660353</v>
+      </c>
+      <c r="DV66">
+        <v>456410.98017474898</v>
+      </c>
+      <c r="DW66">
+        <v>1414477.20315579</v>
+      </c>
+      <c r="DX66">
+        <v>10116</v>
+      </c>
+      <c r="DY66">
+        <v>1934.27277180747</v>
+      </c>
+      <c r="DZ66">
+        <v>45455.977878366903</v>
+      </c>
+      <c r="EA66">
+        <v>17422.112254383301</v>
+      </c>
+      <c r="EB66">
+        <v>89574.519449172702</v>
+      </c>
+      <c r="EC66">
+        <v>3908907.7305480898</v>
+      </c>
+      <c r="ED66">
+        <v>249178.43008033099</v>
+      </c>
+      <c r="EE66">
+        <v>36408.841541175498</v>
+      </c>
+      <c r="EF66">
+        <v>22365.028924023802</v>
+      </c>
+      <c r="EG66">
+        <v>56960</v>
+      </c>
+      <c r="EH66">
+        <v>2051158.7625237501</v>
+      </c>
+      <c r="EI66">
+        <v>24637.5995586467</v>
+      </c>
+      <c r="EJ66">
+        <v>55179.209172553703</v>
+      </c>
+      <c r="EK66">
+        <v>7550.2970551929002</v>
+      </c>
+      <c r="EL66">
+        <v>13643.3280131867</v>
+      </c>
+      <c r="EM66">
+        <v>124650.053026712</v>
+      </c>
+      <c r="EN66">
+        <v>53134.5363276891</v>
+      </c>
+      <c r="EO66">
+        <v>98279.679964272495</v>
+      </c>
+      <c r="EP66">
+        <v>11747.469122443301</v>
+      </c>
+      <c r="EQ66">
+        <v>8061.8455426508199</v>
+      </c>
+      <c r="ER66">
+        <v>16714.986634541201</v>
+      </c>
+      <c r="ES66">
+        <v>11825.7495190303</v>
+      </c>
+      <c r="ET66">
+        <v>2863.0459722913502</v>
+      </c>
+      <c r="EU66">
+        <v>54282.768400481102</v>
+      </c>
+      <c r="EV66">
+        <v>43747.250270705699</v>
+      </c>
+      <c r="EW66">
+        <v>2224092.5022779298</v>
+      </c>
+      <c r="EX66">
+        <v>71793.716625497706</v>
+      </c>
+      <c r="EY66">
+        <v>44371.277645739603</v>
+      </c>
+      <c r="EZ66">
+        <v>2519.2910494749299</v>
+      </c>
+      <c r="FA66">
+        <v>813142.73067039903</v>
+      </c>
+      <c r="FB66">
+        <v>366919.38425138901</v>
+      </c>
+      <c r="FC66">
+        <v>61409.969874050701</v>
+      </c>
+      <c r="FD66">
+        <v>173251.827346515</v>
+      </c>
+      <c r="FE66">
+        <v>518896.57884103298</v>
+      </c>
+      <c r="FF66">
+        <v>7601.1817828390804</v>
+      </c>
+      <c r="FG66">
+        <v>136721.905308124</v>
+      </c>
+      <c r="FH66">
+        <v>1159767.50301988</v>
+      </c>
+      <c r="FI66">
+        <v>4015.3071121085</v>
+      </c>
+      <c r="FJ66">
+        <v>228631.18783839999</v>
+      </c>
+      <c r="FK66">
+        <v>4907.2965366603003</v>
+      </c>
+      <c r="FL66">
+        <v>28474</v>
+      </c>
+      <c r="FM66">
+        <v>1326.5432585887399</v>
+      </c>
+      <c r="FN66">
+        <v>249866.081443542</v>
+      </c>
+      <c r="FO66">
+        <v>21788.944725824502</v>
+      </c>
+      <c r="FP66">
+        <v>10304.120742008099</v>
+      </c>
+      <c r="FQ66">
+        <v>11673.668637909001</v>
+      </c>
+      <c r="FR66">
+        <v>35578</v>
+      </c>
+      <c r="FS66">
+        <v>67422.451910769698</v>
+      </c>
+      <c r="FT66">
+        <v>10096.143016030001</v>
+      </c>
+      <c r="FU66">
+        <v>216563.285226835</v>
+      </c>
+      <c r="FV66">
+        <v>2686.9667968663898</v>
+      </c>
+      <c r="FW66">
+        <v>128956.70587245301</v>
+      </c>
+      <c r="FX66">
+        <v>28118.271375111399</v>
+      </c>
+      <c r="FY66">
+        <v>12933.2104198284</v>
+      </c>
+      <c r="FZ66">
+        <v>8876.6105789543999</v>
+      </c>
+      <c r="GA66">
+        <v>40783.673321404996</v>
+      </c>
+      <c r="GB66">
+        <v>1822418</v>
+      </c>
+      <c r="GC66">
+        <v>9886197.3088604491</v>
+      </c>
+      <c r="GD66">
+        <v>38396.108369352201</v>
+      </c>
+      <c r="GE66">
+        <v>46130</v>
+      </c>
+      <c r="GF66">
+        <v>46188</v>
+      </c>
+      <c r="GG66">
+        <v>120011.263078237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67">
+        <v>7935.9848939168696</v>
+      </c>
+      <c r="C67">
+        <v>6303.7969161159699</v>
+      </c>
+      <c r="D67">
+        <v>12606.1723772518</v>
+      </c>
+      <c r="E67">
+        <v>11745.394979335901</v>
+      </c>
+      <c r="F67">
+        <v>8564.3853304147797</v>
+      </c>
+      <c r="G67">
+        <v>167234.4158203</v>
+      </c>
+      <c r="H67">
+        <v>571930.77527996805</v>
+      </c>
+      <c r="I67">
+        <v>20417.3299737206</v>
+      </c>
+      <c r="J67">
+        <v>31649.317433201199</v>
+      </c>
+      <c r="K67">
+        <v>30816.095539716101</v>
+      </c>
+      <c r="L67">
+        <v>6767.7215394654404</v>
+      </c>
+      <c r="M67">
+        <v>6536.6602105813299</v>
+      </c>
+      <c r="N67">
+        <v>9528.4687671680294</v>
+      </c>
+      <c r="O67">
+        <v>10628.598659548899</v>
+      </c>
+      <c r="P67">
+        <v>33271.1634715533</v>
+      </c>
+      <c r="Q67">
+        <v>2147.58318569019</v>
+      </c>
+      <c r="R67">
+        <v>4107.2770797904504</v>
+      </c>
+      <c r="S67">
+        <v>14736.0982084595</v>
+      </c>
+      <c r="T67">
+        <v>6274.2801920640904</v>
+      </c>
+      <c r="U67">
+        <v>13658.531824224299</v>
+      </c>
+      <c r="V67">
+        <v>8442.3279065719307</v>
+      </c>
+      <c r="W67">
+        <v>2568951.0742888399</v>
+      </c>
+      <c r="X67">
+        <v>3434.3375564712301</v>
+      </c>
+      <c r="Y67">
+        <v>64500.175776499898</v>
+      </c>
+      <c r="Z67">
+        <v>4106.93235346037</v>
+      </c>
+      <c r="AA67">
+        <v>705383.78220126801</v>
+      </c>
+      <c r="AB67">
+        <v>5270.36723337285</v>
+      </c>
+      <c r="AC67">
+        <v>19441.5277355465</v>
+      </c>
+      <c r="AD67">
+        <v>15481.1090352354</v>
+      </c>
+      <c r="AE67">
+        <v>6773.4657549412696</v>
+      </c>
+      <c r="AF67">
+        <v>68592.822903503504</v>
+      </c>
+      <c r="AG67">
+        <v>3392.8672881196098</v>
+      </c>
+      <c r="AH67">
+        <v>12728.758293399</v>
+      </c>
+      <c r="AI67">
+        <v>25289.338528615099</v>
+      </c>
+      <c r="AJ67">
+        <v>2026.5991917394599</v>
+      </c>
+      <c r="AK67">
+        <v>948</v>
+      </c>
+      <c r="AL67">
+        <v>1052.37947568755</v>
+      </c>
+      <c r="AM67">
+        <v>2682</v>
+      </c>
+      <c r="AN67">
+        <v>5100.6248488249403</v>
+      </c>
+      <c r="AO67">
+        <v>7614.2265948165696</v>
+      </c>
+      <c r="AP67">
+        <v>89945.4534849763</v>
+      </c>
+      <c r="AQ67">
+        <v>1738.3585958103599</v>
+      </c>
+      <c r="AR67">
+        <v>831779.38950777799</v>
+      </c>
+      <c r="AS67">
+        <v>4266.9368725045597</v>
+      </c>
+      <c r="AT67">
+        <v>41720.6062994487</v>
+      </c>
+      <c r="AU67">
+        <v>18276.208599199301</v>
+      </c>
+      <c r="AV67">
+        <v>51672</v>
+      </c>
+      <c r="AW67">
+        <v>16230.862900129099</v>
+      </c>
+      <c r="AX67">
+        <v>4182.1727566745803</v>
+      </c>
+      <c r="AY67">
+        <v>7093.1069923885198</v>
+      </c>
+      <c r="AZ67">
+        <v>4446.67512506822</v>
+      </c>
+      <c r="BA67">
+        <v>6052.5181567052005</v>
+      </c>
+      <c r="BB67">
+        <v>4904.1147466898501</v>
+      </c>
+      <c r="BC67">
+        <v>228498.35127683499</v>
+      </c>
+      <c r="BD67">
+        <v>92651.743135179699</v>
+      </c>
+      <c r="BE67">
+        <v>139655.20309757799</v>
+      </c>
+      <c r="BF67">
+        <v>241929.86256345801</v>
+      </c>
+      <c r="BG67">
+        <v>778461.87137172802</v>
+      </c>
+      <c r="BH67">
+        <v>1128538</v>
+      </c>
+      <c r="BI67">
+        <v>1346.53234887387</v>
+      </c>
+      <c r="BJ67">
+        <v>14646.380471272299</v>
+      </c>
+      <c r="BK67">
+        <v>4412.9260267091204</v>
+      </c>
+      <c r="BL67">
+        <v>7285.9899407008297</v>
+      </c>
+      <c r="BM67">
+        <v>3463.7771326962702</v>
+      </c>
+      <c r="BN67">
+        <v>2554.6313277560998</v>
+      </c>
+      <c r="BO67">
+        <v>13444</v>
+      </c>
+      <c r="BP67">
+        <v>47184.019029138399</v>
+      </c>
+      <c r="BQ67">
+        <v>610035.826276768</v>
+      </c>
+      <c r="BR67">
+        <v>91466.456856334495</v>
+      </c>
+      <c r="BS67">
+        <v>7144.5741275575601</v>
+      </c>
+      <c r="BT67">
+        <v>22163.2430056509</v>
+      </c>
+      <c r="BU67">
+        <v>31735.6127894034</v>
+      </c>
+      <c r="BV67">
+        <v>17756380.454876099</v>
+      </c>
+      <c r="BW67">
+        <v>259532</v>
+      </c>
+      <c r="BX67">
+        <v>33866.714958041499</v>
+      </c>
+      <c r="BY67">
+        <v>23324</v>
+      </c>
+      <c r="BZ67">
+        <v>115305.78227135701</v>
+      </c>
+      <c r="CA67">
+        <v>701013.65534810303</v>
+      </c>
+      <c r="CB67">
+        <v>176228.036707388</v>
+      </c>
+      <c r="CC67">
+        <v>46152.239541420102</v>
+      </c>
+      <c r="CD67">
+        <v>144135.75635825199</v>
+      </c>
+      <c r="CE67">
+        <v>117957.552217558</v>
+      </c>
+      <c r="CF67">
+        <v>5510.8083166875003</v>
+      </c>
+      <c r="CG67">
+        <v>16391.871744281601</v>
+      </c>
+      <c r="CH67">
+        <v>20292.367360037199</v>
+      </c>
+      <c r="CI67">
+        <v>15493.8331242765</v>
+      </c>
+      <c r="CJ67">
+        <v>3761.7796978102701</v>
+      </c>
+      <c r="CK67">
+        <v>51885.308778203304</v>
+      </c>
+      <c r="CL67">
+        <v>293.78887611793499</v>
+      </c>
+      <c r="CM67">
+        <v>3165.7472264134999</v>
+      </c>
+      <c r="CN67">
+        <v>84701.035978666594</v>
+      </c>
+      <c r="CO67">
+        <v>26987.877773399301</v>
+      </c>
+      <c r="CP67">
+        <v>25236</v>
+      </c>
+      <c r="CQ67">
+        <v>23782.041261688799</v>
+      </c>
+      <c r="CR67">
+        <v>642562.30798495596</v>
+      </c>
+      <c r="CS67">
+        <v>28563.609150562799</v>
+      </c>
+      <c r="CT67">
+        <v>7496</v>
+      </c>
+      <c r="CU67">
+        <v>25546.806962192299</v>
+      </c>
+      <c r="CV67">
+        <v>4969.3150258512096</v>
+      </c>
+      <c r="CW67">
+        <v>56772.666131685</v>
+      </c>
+      <c r="CX67">
+        <v>35308.707760744197</v>
+      </c>
+      <c r="CY67">
+        <v>26809.698592602999</v>
+      </c>
+      <c r="CZ67">
+        <v>1983.07981694615</v>
+      </c>
+      <c r="DA67">
+        <v>3830.8672657982402</v>
+      </c>
+      <c r="DB67">
+        <v>4654.64101868936</v>
+      </c>
+      <c r="DC67">
+        <v>194693.240350851</v>
+      </c>
+      <c r="DD67">
+        <v>41175.962284324101</v>
+      </c>
+      <c r="DE67">
+        <v>3855.3563072085299</v>
+      </c>
+      <c r="DF67">
+        <v>1146.7650059656601</v>
+      </c>
+      <c r="DG67">
+        <v>2826.8111768446302</v>
+      </c>
+      <c r="DH67">
+        <v>2954.55661758004</v>
+      </c>
+      <c r="DI67">
+        <v>26014.823629085</v>
+      </c>
+      <c r="DJ67">
+        <v>5436.0462713731404</v>
+      </c>
+      <c r="DK67">
+        <v>1885.5686793750499</v>
+      </c>
+      <c r="DL67">
+        <v>10184.244366667799</v>
+      </c>
+      <c r="DM67">
+        <v>14185.4380321469</v>
+      </c>
+      <c r="DN67">
+        <v>14966</v>
+      </c>
+      <c r="DO67">
+        <v>77398.264272014494</v>
+      </c>
+      <c r="DP67">
+        <v>1749083.8214078001</v>
+      </c>
+      <c r="DQ67">
+        <v>56885.220853205501</v>
+      </c>
+      <c r="DR67">
+        <v>9682</v>
+      </c>
+      <c r="DS67">
+        <v>9140.9589267891497</v>
+      </c>
+      <c r="DT67">
+        <v>50230.931728602503</v>
+      </c>
+      <c r="DU67">
+        <v>14744.661495759199</v>
+      </c>
+      <c r="DV67">
+        <v>544337.30181752797</v>
+      </c>
+      <c r="DW67">
+        <v>1065045.9612296899</v>
+      </c>
+      <c r="DX67">
+        <v>6832</v>
+      </c>
+      <c r="DY67">
+        <v>1218.8353374124099</v>
+      </c>
+      <c r="DZ67">
+        <v>31363.9173178565</v>
+      </c>
+      <c r="EA67">
+        <v>11864.0274849467</v>
+      </c>
+      <c r="EB67">
+        <v>73796.320008821407</v>
+      </c>
+      <c r="EC67">
+        <v>2705606.8574460102</v>
+      </c>
+      <c r="ED67">
+        <v>177370.43753433399</v>
+      </c>
+      <c r="EE67">
+        <v>178962.397849923</v>
+      </c>
+      <c r="EF67">
+        <v>34340.276233928402</v>
+      </c>
+      <c r="EG67">
+        <v>34510</v>
+      </c>
+      <c r="EH67">
+        <v>2648182.7265480901</v>
+      </c>
+      <c r="EI67">
+        <v>14599.6067886568</v>
+      </c>
+      <c r="EJ67">
+        <v>28403.568240745899</v>
+      </c>
+      <c r="EK67">
+        <v>5644.5547957843901</v>
+      </c>
+      <c r="EL67">
+        <v>10270.9137918499</v>
+      </c>
+      <c r="EM67">
+        <v>60255.566210678902</v>
+      </c>
+      <c r="EN67">
+        <v>3603.9232748897498</v>
+      </c>
+      <c r="EO67">
+        <v>603648.67868909799</v>
+      </c>
+      <c r="EP67">
+        <v>15537.2930918773</v>
+      </c>
+      <c r="EQ67">
+        <v>9078.8923522556197</v>
+      </c>
+      <c r="ER67">
+        <v>10857.7230058814</v>
+      </c>
+      <c r="ES67">
+        <v>25077.179484396402</v>
+      </c>
+      <c r="ET67">
+        <v>2191.8434468913301</v>
+      </c>
+      <c r="EU67">
+        <v>212992.06006662699</v>
+      </c>
+      <c r="EV67">
+        <v>50351.234101971597</v>
+      </c>
+      <c r="EW67">
+        <v>11361869.962994801</v>
+      </c>
+      <c r="EX67">
+        <v>81124.500901365202</v>
+      </c>
+      <c r="EY67">
+        <v>40073.418026148203</v>
+      </c>
+      <c r="EZ67">
+        <v>2474.68611664525</v>
+      </c>
+      <c r="FA67">
+        <v>5178173.5305366796</v>
+      </c>
+      <c r="FB67">
+        <v>640477.72541069495</v>
+      </c>
+      <c r="FC67">
+        <v>72174.601032440798</v>
+      </c>
+      <c r="FD67">
+        <v>126722.718315529</v>
+      </c>
+      <c r="FE67">
+        <v>341431.857301048</v>
+      </c>
+      <c r="FF67">
+        <v>5733.8250298283201</v>
+      </c>
+      <c r="FG67">
+        <v>53278.2612145042</v>
+      </c>
+      <c r="FH67">
+        <v>527391.16460358002</v>
+      </c>
+      <c r="FI67">
+        <v>2549.5348460711898</v>
+      </c>
+      <c r="FJ67">
+        <v>198557.26231996401</v>
+      </c>
+      <c r="FK67">
+        <v>9702.2869582157491</v>
+      </c>
+      <c r="FL67">
+        <v>30730</v>
+      </c>
+      <c r="FM67">
+        <v>1169.3878587741699</v>
+      </c>
+      <c r="FN67">
+        <v>1274253.6781039799</v>
+      </c>
+      <c r="FO67">
+        <v>26943.202444943199</v>
+      </c>
+      <c r="FP67">
+        <v>9238.13425202078</v>
+      </c>
+      <c r="FQ67">
+        <v>9007.0729231366695</v>
+      </c>
+      <c r="FR67">
+        <v>96212</v>
+      </c>
+      <c r="FS67">
+        <v>138189.466702648</v>
+      </c>
+      <c r="FT67">
+        <v>20814.579170639499</v>
+      </c>
+      <c r="FU67">
+        <v>430777.82807424897</v>
+      </c>
+      <c r="FV67">
+        <v>2709.7105759767101</v>
+      </c>
+      <c r="FW67">
+        <v>92699.672765058494</v>
+      </c>
+      <c r="FX67">
+        <v>20578.0410865593</v>
+      </c>
+      <c r="FY67">
+        <v>8194.9715680530899</v>
+      </c>
+      <c r="FZ67">
+        <v>13858.6958518831</v>
+      </c>
+      <c r="GA67">
+        <v>51248.107075492597</v>
+      </c>
+      <c r="GB67">
+        <v>1598926</v>
+      </c>
+      <c r="GC67">
+        <v>10285831.100731499</v>
+      </c>
+      <c r="GD67">
+        <v>27025.537672753599</v>
+      </c>
+      <c r="GE67">
+        <v>48028</v>
+      </c>
+      <c r="GF67">
+        <v>88246</v>
+      </c>
+      <c r="GG67">
+        <v>807003.54328991298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68">
+        <v>8828.8348432864095</v>
+      </c>
+      <c r="C68">
+        <v>5177.4222496341999</v>
+      </c>
+      <c r="D68">
+        <v>16177.269102163</v>
+      </c>
+      <c r="E68">
+        <v>11399.1495659505</v>
+      </c>
+      <c r="F68">
+        <v>10045.842152511401</v>
+      </c>
+      <c r="G68">
+        <v>109651.352770003</v>
+      </c>
+      <c r="H68">
+        <v>660205.34364007495</v>
+      </c>
+      <c r="I68">
+        <v>13448.523330669501</v>
+      </c>
+      <c r="J68">
+        <v>26574.051390495199</v>
+      </c>
+      <c r="K68">
+        <v>29272.796558444701</v>
+      </c>
+      <c r="L68">
+        <v>2721.6708915394202</v>
+      </c>
+      <c r="M68">
+        <v>8388.2983131702804</v>
+      </c>
+      <c r="N68">
+        <v>10518.185633245001</v>
+      </c>
+      <c r="O68">
+        <v>10969.7263815433</v>
+      </c>
+      <c r="P68">
+        <v>36300.2993201918</v>
+      </c>
+      <c r="Q68">
+        <v>2526.4663095432302</v>
+      </c>
+      <c r="R68">
+        <v>6183.6040802603002</v>
+      </c>
+      <c r="S68">
+        <v>17695.889750829501</v>
+      </c>
+      <c r="T68">
+        <v>7587.2414401531496</v>
+      </c>
+      <c r="U68">
+        <v>14636.2730279681</v>
+      </c>
+      <c r="V68">
+        <v>5142.0444723830196</v>
+      </c>
+      <c r="W68">
+        <v>2636992.9914867301</v>
+      </c>
+      <c r="X68">
+        <v>2862.4206163386998</v>
+      </c>
+      <c r="Y68">
+        <v>75214.067795583498</v>
+      </c>
+      <c r="Z68">
+        <v>4173.5923722749203</v>
+      </c>
+      <c r="AA68">
+        <v>896994.39636033005</v>
+      </c>
+      <c r="AB68">
+        <v>5701.7602340092999</v>
+      </c>
+      <c r="AC68">
+        <v>22329.5908115612</v>
+      </c>
+      <c r="AD68">
+        <v>18208.8432448003</v>
+      </c>
+      <c r="AE68">
+        <v>7788.70835683515</v>
+      </c>
+      <c r="AF68">
+        <v>101924.865043171</v>
+      </c>
+      <c r="AG68">
+        <v>4043.5521554123002</v>
+      </c>
+      <c r="AH68">
+        <v>8383.6312166053995</v>
+      </c>
+      <c r="AI68">
+        <v>31511.437188444201</v>
+      </c>
+      <c r="AJ68">
+        <v>2048.8708144454399</v>
+      </c>
+      <c r="AK68">
+        <v>1070</v>
+      </c>
+      <c r="AL68">
+        <v>917.56682233815502</v>
+      </c>
+      <c r="AM68">
+        <v>4184</v>
+      </c>
+      <c r="AN68">
+        <v>4532.0949879071104</v>
+      </c>
+      <c r="AO68">
+        <v>7227.6153091656597</v>
+      </c>
+      <c r="AP68">
+        <v>35945.006505498801</v>
+      </c>
+      <c r="AQ68">
+        <v>1792.31985540401</v>
+      </c>
+      <c r="AR68">
+        <v>518420.56361123698</v>
+      </c>
+      <c r="AS68">
+        <v>3840.9568253115899</v>
+      </c>
+      <c r="AT68">
+        <v>52379.592272575697</v>
+      </c>
+      <c r="AU68">
+        <v>20077.539547443299</v>
+      </c>
+      <c r="AV68">
+        <v>39732</v>
+      </c>
+      <c r="AW68">
+        <v>15270.605760709601</v>
+      </c>
+      <c r="AX68">
+        <v>3543.33502479255</v>
+      </c>
+      <c r="AY68">
+        <v>7773.59160304333</v>
+      </c>
+      <c r="AZ68">
+        <v>4173.0460777447197</v>
+      </c>
+      <c r="BA68">
+        <v>4844.0765307748898</v>
+      </c>
+      <c r="BB68">
+        <v>4147.8827630113001</v>
+      </c>
+      <c r="BC68">
+        <v>285885.68136761698</v>
+      </c>
+      <c r="BD68">
+        <v>40839.064128626604</v>
+      </c>
+      <c r="BE68">
+        <v>120816.02349726501</v>
+      </c>
+      <c r="BF68">
+        <v>169343.58045953501</v>
+      </c>
+      <c r="BG68">
+        <v>1056736.70629247</v>
+      </c>
+      <c r="BH68">
+        <v>1606542</v>
+      </c>
+      <c r="BI68">
+        <v>1868.9150978976299</v>
+      </c>
+      <c r="BJ68">
+        <v>28296.7124519477</v>
+      </c>
+      <c r="BK68">
+        <v>5827.6988705664799</v>
+      </c>
+      <c r="BL68">
+        <v>11061.6912288066</v>
+      </c>
+      <c r="BM68">
+        <v>2914.87580000155</v>
+      </c>
+      <c r="BN68">
+        <v>3367.3888192438899</v>
+      </c>
+      <c r="BO68">
+        <v>12048</v>
+      </c>
+      <c r="BP68">
+        <v>52445.974489442597</v>
+      </c>
+      <c r="BQ68">
+        <v>604806.79431392602</v>
+      </c>
+      <c r="BR68">
+        <v>72155.328568748198</v>
+      </c>
+      <c r="BS68">
+        <v>6412.2813399819997</v>
+      </c>
+      <c r="BT68">
+        <v>21477.708095363501</v>
+      </c>
+      <c r="BU68">
+        <v>32865.453806316204</v>
+      </c>
+      <c r="BV68">
+        <v>18802837.083947301</v>
+      </c>
+      <c r="BW68">
+        <v>301978</v>
+      </c>
+      <c r="BX68">
+        <v>37190.818443010103</v>
+      </c>
+      <c r="BY68">
+        <v>41998</v>
+      </c>
+      <c r="BZ68">
+        <v>53808.901952421103</v>
+      </c>
+      <c r="CA68">
+        <v>441064.65391082101</v>
+      </c>
+      <c r="CB68">
+        <v>71592.233746112193</v>
+      </c>
+      <c r="CC68">
+        <v>14358.0856359474</v>
+      </c>
+      <c r="CD68">
+        <v>105347.682006288</v>
+      </c>
+      <c r="CE68">
+        <v>41701.576941624502</v>
+      </c>
+      <c r="CF68">
+        <v>4795.0700305136797</v>
+      </c>
+      <c r="CG68">
+        <v>15999.8014521561</v>
+      </c>
+      <c r="CH68">
+        <v>16231.457815100999</v>
+      </c>
+      <c r="CI68">
+        <v>16517.411793883199</v>
+      </c>
+      <c r="CJ68">
+        <v>4056.4691988628902</v>
+      </c>
+      <c r="CK68">
+        <v>52182.219694273699</v>
+      </c>
+      <c r="CL68">
+        <v>8161.7415609290601</v>
+      </c>
+      <c r="CM68">
+        <v>3409.3039295071198</v>
+      </c>
+      <c r="CN68">
+        <v>96213.984292987196</v>
+      </c>
+      <c r="CO68">
+        <v>47514.528269461902</v>
+      </c>
+      <c r="CP68">
+        <v>24516</v>
+      </c>
+      <c r="CQ68">
+        <v>30461.391212551</v>
+      </c>
+      <c r="CR68">
+        <v>1046741.1562144</v>
+      </c>
+      <c r="CS68">
+        <v>32223.100544267101</v>
+      </c>
+      <c r="CT68">
+        <v>8130</v>
+      </c>
+      <c r="CU68">
+        <v>22386.648414912899</v>
+      </c>
+      <c r="CV68">
+        <v>6193.0114080140802</v>
+      </c>
+      <c r="CW68">
+        <v>18749.466786743898</v>
+      </c>
+      <c r="CX68">
+        <v>12275.208949239801</v>
+      </c>
+      <c r="CY68">
+        <v>22108.541750668999</v>
+      </c>
+      <c r="CZ68">
+        <v>2935.1883801642398</v>
+      </c>
+      <c r="DA68">
+        <v>4127.7669397183199</v>
+      </c>
+      <c r="DB68">
+        <v>5709.0594364856597</v>
+      </c>
+      <c r="DC68">
+        <v>262745.117286055</v>
+      </c>
+      <c r="DD68">
+        <v>45063.829274523101</v>
+      </c>
+      <c r="DE68">
+        <v>3603.3529585643701</v>
+      </c>
+      <c r="DF68">
+        <v>1436.1176390884</v>
+      </c>
+      <c r="DG68">
+        <v>2883.04054219313</v>
+      </c>
+      <c r="DH68">
+        <v>2946.99208678688</v>
+      </c>
+      <c r="DI68">
+        <v>40049.519625459201</v>
+      </c>
+      <c r="DJ68">
+        <v>6187.1095547027599</v>
+      </c>
+      <c r="DK68">
+        <v>1480.9643351748</v>
+      </c>
+      <c r="DL68">
+        <v>11127.8462759214</v>
+      </c>
+      <c r="DM68">
+        <v>18894.792819090701</v>
+      </c>
+      <c r="DN68">
+        <v>20044</v>
+      </c>
+      <c r="DO68">
+        <v>91084.666377955495</v>
+      </c>
+      <c r="DP68">
+        <v>1928825.86016167</v>
+      </c>
+      <c r="DQ68">
+        <v>54501.449076598299</v>
+      </c>
+      <c r="DR68">
+        <v>9412</v>
+      </c>
+      <c r="DS68">
+        <v>5692.7779919117202</v>
+      </c>
+      <c r="DT68">
+        <v>68405.155745951895</v>
+      </c>
+      <c r="DU68">
+        <v>13985.193016822101</v>
+      </c>
+      <c r="DV68">
+        <v>593223.67523912899</v>
+      </c>
+      <c r="DW68">
+        <v>1288116.6756705199</v>
+      </c>
+      <c r="DX68">
+        <v>13850</v>
+      </c>
+      <c r="DY68">
+        <v>1934.0805754733101</v>
+      </c>
+      <c r="DZ68">
+        <v>40059.812992817897</v>
+      </c>
+      <c r="EA68">
+        <v>14628.2266986509</v>
+      </c>
+      <c r="EB68">
+        <v>95683.954119444898</v>
+      </c>
+      <c r="EC68">
+        <v>3120317.06747744</v>
+      </c>
+      <c r="ED68">
+        <v>202429.595637769</v>
+      </c>
+      <c r="EE68">
+        <v>79751.193027325804</v>
+      </c>
+      <c r="EF68">
+        <v>25119.508975163499</v>
+      </c>
+      <c r="EG68">
+        <v>42252</v>
+      </c>
+      <c r="EH68">
+        <v>915748.20489628101</v>
+      </c>
+      <c r="EI68">
+        <v>10078.3981713012</v>
+      </c>
+      <c r="EJ68">
+        <v>42837.424952224399</v>
+      </c>
+      <c r="EK68">
+        <v>6932.0441645189903</v>
+      </c>
+      <c r="EL68">
+        <v>9201.3162572327801</v>
+      </c>
+      <c r="EM68">
+        <v>71776.085990548207</v>
+      </c>
+      <c r="EN68">
+        <v>2879.32468849713</v>
+      </c>
+      <c r="EO68">
+        <v>299332.31905044202</v>
+      </c>
+      <c r="EP68">
+        <v>14010.9997610789</v>
+      </c>
+      <c r="EQ68">
+        <v>6589.0035798497101</v>
+      </c>
+      <c r="ER68">
+        <v>13710.9451564913</v>
+      </c>
+      <c r="ES68">
+        <v>17061.868573121399</v>
+      </c>
+      <c r="ET68">
+        <v>1812.4356786969799</v>
+      </c>
+      <c r="EU68">
+        <v>199398.60732166699</v>
+      </c>
+      <c r="EV68">
+        <v>40686.307602908098</v>
+      </c>
+      <c r="EW68">
+        <v>2289083.3138253102</v>
+      </c>
+      <c r="EX68">
+        <v>72298.242550104202</v>
+      </c>
+      <c r="EY68">
+        <v>51159.231786977798</v>
+      </c>
+      <c r="EZ68">
+        <v>2649.33025727842</v>
+      </c>
+      <c r="FA68">
+        <v>1181668.59077701</v>
+      </c>
+      <c r="FB68">
+        <v>239809.75928536599</v>
+      </c>
+      <c r="FC68">
+        <v>62134.508837290603</v>
+      </c>
+      <c r="FD68">
+        <v>143995.032645392</v>
+      </c>
+      <c r="FE68">
+        <v>420863.12691482197</v>
+      </c>
+      <c r="FF68">
+        <v>7088.12582689795</v>
+      </c>
+      <c r="FG68">
+        <v>58341.020796163801</v>
+      </c>
+      <c r="FH68">
+        <v>778956.92818499706</v>
+      </c>
+      <c r="FI68">
+        <v>3549.10279748619</v>
+      </c>
+      <c r="FJ68">
+        <v>277489.73599726299</v>
+      </c>
+      <c r="FK68">
+        <v>5951.6604170762002</v>
+      </c>
+      <c r="FL68">
+        <v>29968</v>
+      </c>
+      <c r="FM68">
+        <v>1153.52824203562</v>
+      </c>
+      <c r="FN68">
+        <v>453600.99375651201</v>
+      </c>
+      <c r="FO68">
+        <v>28126.0299985538</v>
+      </c>
+      <c r="FP68">
+        <v>10029.749493877</v>
+      </c>
+      <c r="FQ68">
+        <v>11001.3437589276</v>
+      </c>
+      <c r="FR68">
+        <v>195312</v>
+      </c>
+      <c r="FS68">
+        <v>182686.509707441</v>
+      </c>
+      <c r="FT68">
+        <v>25111.320613276501</v>
+      </c>
+      <c r="FU68">
+        <v>520535.71782827401</v>
+      </c>
+      <c r="FV68">
+        <v>1835.2401113568201</v>
+      </c>
+      <c r="FW68">
+        <v>109096.566728244</v>
+      </c>
+      <c r="FX68">
+        <v>21793.828428603101</v>
+      </c>
+      <c r="FY68">
+        <v>10111.749864670301</v>
+      </c>
+      <c r="FZ68">
+        <v>9140.7864926020502</v>
+      </c>
+      <c r="GA68">
+        <v>56776.911244419898</v>
+      </c>
+      <c r="GB68">
+        <v>1923762</v>
+      </c>
+      <c r="GC68">
+        <v>10565584.736843601</v>
+      </c>
+      <c r="GD68">
+        <v>52926.742666144601</v>
+      </c>
+      <c r="GE68">
+        <v>43266</v>
+      </c>
+      <c r="GF68">
+        <v>63544</v>
+      </c>
+      <c r="GG68">
+        <v>287937.97425064701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69">
+        <v>7075.8146415582996</v>
+      </c>
+      <c r="C69">
+        <v>6788.4454967841702</v>
+      </c>
+      <c r="D69">
+        <v>10686.0076443128</v>
+      </c>
+      <c r="E69">
+        <v>12161.397501307099</v>
+      </c>
+      <c r="F69">
+        <v>4658.3707226795004</v>
+      </c>
+      <c r="G69">
+        <v>123793.97447732701</v>
+      </c>
+      <c r="H69">
+        <v>410098.01067243901</v>
+      </c>
+      <c r="I69">
+        <v>12962.159269088001</v>
+      </c>
+      <c r="J69">
+        <v>22769.970889445802</v>
+      </c>
+      <c r="K69">
+        <v>17841.608746387301</v>
+      </c>
+      <c r="L69">
+        <v>3853.1164548471402</v>
+      </c>
+      <c r="M69">
+        <v>3757.2928780904699</v>
+      </c>
+      <c r="N69">
+        <v>8472.6844910222098</v>
+      </c>
+      <c r="O69">
+        <v>7611.4680615276102</v>
+      </c>
+      <c r="P69">
+        <v>26933.402925975599</v>
+      </c>
+      <c r="Q69">
+        <v>1992.1720029476601</v>
+      </c>
+      <c r="R69">
+        <v>2301.4469575417702</v>
+      </c>
+      <c r="S69">
+        <v>8405.5769084797994</v>
+      </c>
+      <c r="T69">
+        <v>3698.486092695</v>
+      </c>
+      <c r="U69">
+        <v>8020.6014860714204</v>
+      </c>
+      <c r="V69">
+        <v>8369.56903519564</v>
+      </c>
+      <c r="W69">
+        <v>2369774.14868293</v>
+      </c>
+      <c r="X69">
+        <v>1815.2799596615</v>
+      </c>
+      <c r="Y69">
+        <v>53684.575424096802</v>
+      </c>
+      <c r="Z69">
+        <v>2945.4646338657199</v>
+      </c>
+      <c r="AA69">
+        <v>569616.89850196801</v>
+      </c>
+      <c r="AB69">
+        <v>2649.6716289987498</v>
+      </c>
+      <c r="AC69">
+        <v>17919.390704389301</v>
+      </c>
+      <c r="AD69">
+        <v>4056.5314160323501</v>
+      </c>
+      <c r="AE69">
+        <v>4615.9976117106698</v>
+      </c>
+      <c r="AF69">
+        <v>99352.237942849504</v>
+      </c>
+      <c r="AG69">
+        <v>2178.22395197694</v>
+      </c>
+      <c r="AH69">
+        <v>7490.1854541448402</v>
+      </c>
+      <c r="AI69">
+        <v>25164.616148606801</v>
+      </c>
+      <c r="AJ69">
+        <v>1439.7047955936</v>
+      </c>
+      <c r="AK69">
+        <v>1048</v>
+      </c>
+      <c r="AL69">
+        <v>96.023522249818399</v>
+      </c>
+      <c r="AM69">
+        <v>2350</v>
+      </c>
+      <c r="AN69">
+        <v>3478.2277247289398</v>
+      </c>
+      <c r="AO69">
+        <v>4068.2992237042199</v>
+      </c>
+      <c r="AP69">
+        <v>51787.840097143999</v>
+      </c>
+      <c r="AQ69">
+        <v>1040.6104212698001</v>
+      </c>
+      <c r="AR69">
+        <v>738164.92487023806</v>
+      </c>
+      <c r="AS69">
+        <v>3589.23587931989</v>
+      </c>
+      <c r="AT69">
+        <v>33960.211825640101</v>
+      </c>
+      <c r="AU69">
+        <v>17545.601873150801</v>
+      </c>
+      <c r="AV69">
+        <v>45524</v>
+      </c>
+      <c r="AW69">
+        <v>15769.614170701499</v>
+      </c>
+      <c r="AX69">
+        <v>2034.3256575144801</v>
+      </c>
+      <c r="AY69">
+        <v>4491.4423339183604</v>
+      </c>
+      <c r="AZ69">
+        <v>3130.5541594985002</v>
+      </c>
+      <c r="BA69">
+        <v>4454.9758565442999</v>
+      </c>
+      <c r="BB69">
+        <v>3678.2804551507602</v>
+      </c>
+      <c r="BC69">
+        <v>180387.51848489101</v>
+      </c>
+      <c r="BD69">
+        <v>22726.168583598901</v>
+      </c>
+      <c r="BE69">
+        <v>96090.305526571101</v>
+      </c>
+      <c r="BF69">
+        <v>26421.151745135401</v>
+      </c>
+      <c r="BG69">
+        <v>405567.96317633399</v>
+      </c>
+      <c r="BH69">
+        <v>905590</v>
+      </c>
+      <c r="BI69">
+        <v>1874.29891401502</v>
+      </c>
+      <c r="BJ69">
+        <v>9635.8483190137595</v>
+      </c>
+      <c r="BK69">
+        <v>3506.9130315675702</v>
+      </c>
+      <c r="BL69">
+        <v>6589.9722962481601</v>
+      </c>
+      <c r="BM69">
+        <v>2554.63286552504</v>
+      </c>
+      <c r="BN69">
+        <v>2637.6700338809601</v>
+      </c>
+      <c r="BO69">
+        <v>17942</v>
+      </c>
+      <c r="BP69">
+        <v>35172.296015842898</v>
+      </c>
+      <c r="BQ69">
+        <v>333480.34198853403</v>
+      </c>
+      <c r="BR69">
+        <v>76499.404913190097</v>
+      </c>
+      <c r="BS69">
+        <v>3995.7823140462101</v>
+      </c>
+      <c r="BT69">
+        <v>21228.455573605501</v>
+      </c>
+      <c r="BU69">
+        <v>27290.6271710205</v>
+      </c>
+      <c r="BV69">
+        <v>17457948.4946208</v>
+      </c>
+      <c r="BW69">
+        <v>324712</v>
+      </c>
+      <c r="BX69">
+        <v>18654.193655110401</v>
+      </c>
+      <c r="BY69">
+        <v>13186</v>
+      </c>
+      <c r="BZ69">
+        <v>77778.432974557305</v>
+      </c>
+      <c r="CA69">
+        <v>517372.41127154703</v>
+      </c>
+      <c r="CB69">
+        <v>444336.21453705401</v>
+      </c>
+      <c r="CC69">
+        <v>461804.55379144801</v>
+      </c>
+      <c r="CD69">
+        <v>126162.634552966</v>
+      </c>
+      <c r="CE69">
+        <v>87816.399022940095</v>
+      </c>
+      <c r="CF69">
+        <v>2865.1019658893802</v>
+      </c>
+      <c r="CG69">
+        <v>11049.74076708</v>
+      </c>
+      <c r="CH69">
+        <v>12885.7494006995</v>
+      </c>
+      <c r="CI69">
+        <v>12610.5336502267</v>
+      </c>
+      <c r="CJ69">
+        <v>3664.0713776702401</v>
+      </c>
+      <c r="CK69">
+        <v>45855.035886692298</v>
+      </c>
+      <c r="CL69">
+        <v>4712.5740824709801</v>
+      </c>
+      <c r="CM69">
+        <v>4315.7912785265098</v>
+      </c>
+      <c r="CN69">
+        <v>55087.057489940104</v>
+      </c>
+      <c r="CO69">
+        <v>15090.8142294547</v>
+      </c>
+      <c r="CP69">
+        <v>14596</v>
+      </c>
+      <c r="CQ69">
+        <v>17712.231661548602</v>
+      </c>
+      <c r="CR69">
+        <v>315347.14410501102</v>
+      </c>
+      <c r="CS69">
+        <v>14570.8578619496</v>
+      </c>
+      <c r="CT69">
+        <v>4444</v>
+      </c>
+      <c r="CU69">
+        <v>21221.369054652401</v>
+      </c>
+      <c r="CV69">
+        <v>3592.2209728073499</v>
+      </c>
+      <c r="CW69">
+        <v>61821.245609649697</v>
+      </c>
+      <c r="CX69">
+        <v>179892.48813064699</v>
+      </c>
+      <c r="CY69">
+        <v>21822.385567217101</v>
+      </c>
+      <c r="CZ69">
+        <v>2850.9064361577598</v>
+      </c>
+      <c r="DA69">
+        <v>3711.9027627846799</v>
+      </c>
+      <c r="DB69">
+        <v>2833.1622052273101</v>
+      </c>
+      <c r="DC69">
+        <v>120516.65201398999</v>
+      </c>
+      <c r="DD69">
+        <v>61401.105092536003</v>
+      </c>
+      <c r="DE69">
+        <v>4091.1015486370102</v>
+      </c>
+      <c r="DF69">
+        <v>1421.5100556498901</v>
+      </c>
+      <c r="DG69">
+        <v>4383.4987006210204</v>
+      </c>
+      <c r="DH69">
+        <v>2196.34147294588</v>
+      </c>
+      <c r="DI69">
+        <v>21035.786094126601</v>
+      </c>
+      <c r="DJ69">
+        <v>4562.2389303382097</v>
+      </c>
+      <c r="DK69">
+        <v>1664.27383595532</v>
+      </c>
+      <c r="DL69">
+        <v>8766.1955011038099</v>
+      </c>
+      <c r="DM69">
+        <v>7578.4681406853897</v>
+      </c>
+      <c r="DN69">
+        <v>12448</v>
+      </c>
+      <c r="DO69">
+        <v>79999.666001826394</v>
+      </c>
+      <c r="DP69">
+        <v>1708048.7749985899</v>
+      </c>
+      <c r="DQ69">
+        <v>30107.533437849201</v>
+      </c>
+      <c r="DR69">
+        <v>7004</v>
+      </c>
+      <c r="DS69">
+        <v>4649.9651457710297</v>
+      </c>
+      <c r="DT69">
+        <v>42606.927885697201</v>
+      </c>
+      <c r="DU69">
+        <v>11576.377279889901</v>
+      </c>
+      <c r="DV69">
+        <v>320038.97855960502</v>
+      </c>
+      <c r="DW69">
+        <v>852719.59997551399</v>
+      </c>
+      <c r="DX69">
+        <v>8148</v>
+      </c>
+      <c r="DY69">
+        <v>833.09011032356705</v>
+      </c>
+      <c r="DZ69">
+        <v>30587.110961653801</v>
+      </c>
+      <c r="EA69">
+        <v>16819.559393868101</v>
+      </c>
+      <c r="EB69">
+        <v>86405.537626725098</v>
+      </c>
+      <c r="EC69">
+        <v>2295362.632464</v>
+      </c>
+      <c r="ED69">
+        <v>140568.474295502</v>
+      </c>
+      <c r="EE69">
+        <v>211455.736055863</v>
+      </c>
+      <c r="EF69">
+        <v>22016.836805782299</v>
+      </c>
+      <c r="EG69">
+        <v>32212</v>
+      </c>
+      <c r="EH69">
+        <v>6672679.97600016</v>
+      </c>
+      <c r="EI69">
+        <v>19457.535005837399</v>
+      </c>
+      <c r="EJ69">
+        <v>27080.7332877511</v>
+      </c>
+      <c r="EK69">
+        <v>6847.9871581713096</v>
+      </c>
+      <c r="EL69">
+        <v>6328.9536178721</v>
+      </c>
+      <c r="EM69">
+        <v>47021.875638017198</v>
+      </c>
+      <c r="EN69">
+        <v>111580.415826344</v>
+      </c>
+      <c r="EO69">
+        <v>559688.98302321299</v>
+      </c>
+      <c r="EP69">
+        <v>13446.183882846401</v>
+      </c>
+      <c r="EQ69">
+        <v>6381.2008828297803</v>
+      </c>
+      <c r="ER69">
+        <v>9170.4844071514599</v>
+      </c>
+      <c r="ES69">
+        <v>12604.491385944</v>
+      </c>
+      <c r="ET69">
+        <v>1385.23907451747</v>
+      </c>
+      <c r="EU69">
+        <v>206722.636826445</v>
+      </c>
+      <c r="EV69">
+        <v>41088.309262709001</v>
+      </c>
+      <c r="EW69">
+        <v>11224839.299014499</v>
+      </c>
+      <c r="EX69">
+        <v>71537.038588781201</v>
+      </c>
+      <c r="EY69">
+        <v>36253.435372108397</v>
+      </c>
+      <c r="EZ69">
+        <v>1921.9424985319399</v>
+      </c>
+      <c r="FA69">
+        <v>5033200.4665050898</v>
+      </c>
+      <c r="FB69">
+        <v>1440547.7687172601</v>
+      </c>
+      <c r="FC69">
+        <v>57312.402666767601</v>
+      </c>
+      <c r="FD69">
+        <v>102614.81965370799</v>
+      </c>
+      <c r="FE69">
+        <v>304723.64934970299</v>
+      </c>
+      <c r="FF69">
+        <v>4749.5391457150999</v>
+      </c>
+      <c r="FG69">
+        <v>78138.677081047703</v>
+      </c>
+      <c r="FH69">
+        <v>604358.53302201198</v>
+      </c>
+      <c r="FI69">
+        <v>3847.6945956734498</v>
+      </c>
+      <c r="FJ69">
+        <v>93878.526260047496</v>
+      </c>
+      <c r="FK69">
+        <v>6778.2374848444097</v>
+      </c>
+      <c r="FL69">
+        <v>28702</v>
+      </c>
+      <c r="FM69">
+        <v>102.473982519277</v>
+      </c>
+      <c r="FN69">
+        <v>1019925.03228769</v>
+      </c>
+      <c r="FO69">
+        <v>20733.325421385201</v>
+      </c>
+      <c r="FP69">
+        <v>8980.5183690198191</v>
+      </c>
+      <c r="FQ69">
+        <v>7370.0098333550904</v>
+      </c>
+      <c r="FR69">
+        <v>58530</v>
+      </c>
+      <c r="FS69">
+        <v>80180.621935781295</v>
+      </c>
+      <c r="FT69">
+        <v>8999.4963123316793</v>
+      </c>
+      <c r="FU69">
+        <v>224665.36360192901</v>
+      </c>
+      <c r="FV69">
+        <v>1228.9584380425799</v>
+      </c>
+      <c r="FW69">
+        <v>80718.651443353694</v>
+      </c>
+      <c r="FX69">
+        <v>20650.130175963299</v>
+      </c>
+      <c r="FY69">
+        <v>8689.3014252970606</v>
+      </c>
+      <c r="FZ69">
+        <v>8675.9567324543495</v>
+      </c>
+      <c r="GA69">
+        <v>31105.677907520301</v>
+      </c>
+      <c r="GB69">
+        <v>1520532</v>
+      </c>
+      <c r="GC69">
+        <v>7340191.8898299504</v>
+      </c>
+      <c r="GD69">
+        <v>23466.689613093899</v>
+      </c>
+      <c r="GE69">
+        <v>45138</v>
+      </c>
+      <c r="GF69">
+        <v>139572</v>
+      </c>
+      <c r="GG69">
+        <v>681499.87486670003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70">
+        <v>6290.33091569926</v>
+      </c>
+      <c r="C70">
+        <v>6077.0189263422599</v>
+      </c>
+      <c r="D70">
+        <v>22471.957874242798</v>
+      </c>
+      <c r="E70">
+        <v>9087.14532962456</v>
+      </c>
+      <c r="F70">
+        <v>8568.9984019740405</v>
+      </c>
+      <c r="G70">
+        <v>118602.687485692</v>
+      </c>
+      <c r="H70">
+        <v>606063.34123831196</v>
+      </c>
+      <c r="I70">
+        <v>21695.954725226598</v>
+      </c>
+      <c r="J70">
+        <v>33751.342855551004</v>
+      </c>
+      <c r="K70">
+        <v>37660.671364231297</v>
+      </c>
+      <c r="L70">
+        <v>6560.5005396569604</v>
+      </c>
+      <c r="M70">
+        <v>4635.5419689583696</v>
+      </c>
+      <c r="N70">
+        <v>4481.8202082870703</v>
+      </c>
+      <c r="O70">
+        <v>8904.2665258826091</v>
+      </c>
+      <c r="P70">
+        <v>34214.193943051403</v>
+      </c>
+      <c r="Q70">
+        <v>1734.74073767447</v>
+      </c>
+      <c r="R70">
+        <v>3666.8416725310999</v>
+      </c>
+      <c r="S70">
+        <v>13672.004917648699</v>
+      </c>
+      <c r="T70">
+        <v>6315.1029904812203</v>
+      </c>
+      <c r="U70">
+        <v>14500.288106887399</v>
+      </c>
+      <c r="V70">
+        <v>7128.9989307488104</v>
+      </c>
+      <c r="W70">
+        <v>1653622.9885901001</v>
+      </c>
+      <c r="X70">
+        <v>2409.4659427525098</v>
+      </c>
+      <c r="Y70">
+        <v>68290.480951895006</v>
+      </c>
+      <c r="Z70">
+        <v>4253.6858842482698</v>
+      </c>
+      <c r="AA70">
+        <v>736572.98303474695</v>
+      </c>
+      <c r="AB70">
+        <v>4056.68396211346</v>
+      </c>
+      <c r="AC70">
+        <v>19832.796444883599</v>
+      </c>
+      <c r="AD70">
+        <v>3583.3023809126098</v>
+      </c>
+      <c r="AE70">
+        <v>1038.3020428344801</v>
+      </c>
+      <c r="AF70">
+        <v>97053.105111592798</v>
+      </c>
+      <c r="AG70">
+        <v>3600.6328154189</v>
+      </c>
+      <c r="AH70">
+        <v>13830.9902753764</v>
+      </c>
+      <c r="AI70">
+        <v>22399.194744176901</v>
+      </c>
+      <c r="AJ70">
+        <v>1898.82559381752</v>
+      </c>
+      <c r="AK70">
+        <v>948</v>
+      </c>
+      <c r="AL70">
+        <v>96.088863216578901</v>
+      </c>
+      <c r="AM70">
+        <v>4020</v>
+      </c>
+      <c r="AN70">
+        <v>4166.2999905055303</v>
+      </c>
+      <c r="AO70">
+        <v>5634.4586049072204</v>
+      </c>
+      <c r="AP70">
+        <v>65185.2946015739</v>
+      </c>
+      <c r="AQ70">
+        <v>1596.1336994342901</v>
+      </c>
+      <c r="AR70">
+        <v>630873.01091912703</v>
+      </c>
+      <c r="AS70">
+        <v>2673.1031917108699</v>
+      </c>
+      <c r="AT70">
+        <v>26769.8993843873</v>
+      </c>
+      <c r="AU70">
+        <v>18615.160138023599</v>
+      </c>
+      <c r="AV70">
+        <v>40096</v>
+      </c>
+      <c r="AW70">
+        <v>14336.017611344399</v>
+      </c>
+      <c r="AX70">
+        <v>2461.6204023876599</v>
+      </c>
+      <c r="AY70">
+        <v>4804.3306793387001</v>
+      </c>
+      <c r="AZ70">
+        <v>4036.5097655355898</v>
+      </c>
+      <c r="BA70">
+        <v>3467.8965485086901</v>
+      </c>
+      <c r="BB70">
+        <v>4971.4765671689302</v>
+      </c>
+      <c r="BC70">
+        <v>149752.156813851</v>
+      </c>
+      <c r="BD70">
+        <v>25640.554553055499</v>
+      </c>
+      <c r="BE70">
+        <v>31924.260476560699</v>
+      </c>
+      <c r="BF70">
+        <v>62572.0801851207</v>
+      </c>
+      <c r="BG70">
+        <v>673353.329628331</v>
+      </c>
+      <c r="BH70">
+        <v>1325664</v>
+      </c>
+      <c r="BI70">
+        <v>1155.56019703437</v>
+      </c>
+      <c r="BJ70">
+        <v>21141.603954744602</v>
+      </c>
+      <c r="BK70">
+        <v>5231.7583358547499</v>
+      </c>
+      <c r="BL70">
+        <v>8060.6529253168001</v>
+      </c>
+      <c r="BM70">
+        <v>2548.6023965888498</v>
+      </c>
+      <c r="BN70">
+        <v>2591.4954719100101</v>
+      </c>
+      <c r="BO70">
+        <v>10130</v>
+      </c>
+      <c r="BP70">
+        <v>44512.222978767102</v>
+      </c>
+      <c r="BQ70">
+        <v>563232.52235419105</v>
+      </c>
+      <c r="BR70">
+        <v>80520.882573723196</v>
+      </c>
+      <c r="BS70">
+        <v>5788.1014007038802</v>
+      </c>
+      <c r="BT70">
+        <v>13979.717338431799</v>
+      </c>
+      <c r="BU70">
+        <v>34357.143301352698</v>
+      </c>
+      <c r="BV70">
+        <v>17521690.475186601</v>
+      </c>
+      <c r="BW70">
+        <v>202838</v>
+      </c>
+      <c r="BX70">
+        <v>37685.979906276698</v>
+      </c>
+      <c r="BY70">
+        <v>23432</v>
+      </c>
+      <c r="BZ70">
+        <v>84058.146811365703</v>
+      </c>
+      <c r="CA70">
+        <v>634985.95408349903</v>
+      </c>
+      <c r="CB70">
+        <v>453474.41184323397</v>
+      </c>
+      <c r="CC70">
+        <v>473015.491000004</v>
+      </c>
+      <c r="CD70">
+        <v>123689.124848394</v>
+      </c>
+      <c r="CE70">
+        <v>134773.661569449</v>
+      </c>
+      <c r="CF70">
+        <v>4291.2701916055303</v>
+      </c>
+      <c r="CG70">
+        <v>20241.445939937501</v>
+      </c>
+      <c r="CH70">
+        <v>14695.805597909401</v>
+      </c>
+      <c r="CI70">
+        <v>11578.2377559134</v>
+      </c>
+      <c r="CJ70">
+        <v>3416.9135742072799</v>
+      </c>
+      <c r="CK70">
+        <v>46956.590505639702</v>
+      </c>
+      <c r="CL70">
+        <v>4911.6036525339596</v>
+      </c>
+      <c r="CM70">
+        <v>3564.5878923989198</v>
+      </c>
+      <c r="CN70">
+        <v>147303.68569654401</v>
+      </c>
+      <c r="CO70">
+        <v>46114.269295421698</v>
+      </c>
+      <c r="CP70">
+        <v>43090</v>
+      </c>
+      <c r="CQ70">
+        <v>38234.334085223702</v>
+      </c>
+      <c r="CR70">
+        <v>1026813.94009102</v>
+      </c>
+      <c r="CS70">
+        <v>26138.1566342486</v>
+      </c>
+      <c r="CT70">
+        <v>10942</v>
+      </c>
+      <c r="CU70">
+        <v>19030.291262869199</v>
+      </c>
+      <c r="CV70">
+        <v>11696.548842531</v>
+      </c>
+      <c r="CW70">
+        <v>49010.334793926202</v>
+      </c>
+      <c r="CX70">
+        <v>115870.16453138999</v>
+      </c>
+      <c r="CY70">
+        <v>29976.845626026199</v>
+      </c>
+      <c r="CZ70">
+        <v>2418.8274984135601</v>
+      </c>
+      <c r="DA70">
+        <v>1857.4161647091601</v>
+      </c>
+      <c r="DB70">
+        <v>3995.4721431284602</v>
+      </c>
+      <c r="DC70">
+        <v>142687.873423268</v>
+      </c>
+      <c r="DD70">
+        <v>16574.392484058699</v>
+      </c>
+      <c r="DE70">
+        <v>4331.21956906385</v>
+      </c>
+      <c r="DF70">
+        <v>1163.38747696976</v>
+      </c>
+      <c r="DG70">
+        <v>3018.45184037128</v>
+      </c>
+      <c r="DH70">
+        <v>3231.6318804715502</v>
+      </c>
+      <c r="DI70">
+        <v>32794.457964936002</v>
+      </c>
+      <c r="DJ70">
+        <v>3846.6212201491699</v>
+      </c>
+      <c r="DK70">
+        <v>1261.6296273996099</v>
+      </c>
+      <c r="DL70">
+        <v>9982.6856294959198</v>
+      </c>
+      <c r="DM70">
+        <v>12962.8096547597</v>
+      </c>
+      <c r="DN70">
+        <v>22006</v>
+      </c>
+      <c r="DO70">
+        <v>94393.314669504005</v>
+      </c>
+      <c r="DP70">
+        <v>1844798.2320990299</v>
+      </c>
+      <c r="DQ70">
+        <v>52336.977861635401</v>
+      </c>
+      <c r="DR70">
+        <v>7806</v>
+      </c>
+      <c r="DS70">
+        <v>5799.7597564076596</v>
+      </c>
+      <c r="DT70">
+        <v>50212.216161365403</v>
+      </c>
+      <c r="DU70">
+        <v>11732.024742543501</v>
+      </c>
+      <c r="DV70">
+        <v>513851.96017711901</v>
+      </c>
+      <c r="DW70">
+        <v>983833.86066986399</v>
+      </c>
+      <c r="DX70">
+        <v>8274</v>
+      </c>
+      <c r="DY70">
+        <v>1316.0749535820401</v>
+      </c>
+      <c r="DZ70">
+        <v>36012.130537109297</v>
+      </c>
+      <c r="EA70">
+        <v>10765.9040283669</v>
+      </c>
+      <c r="EB70">
+        <v>102007.029111695</v>
+      </c>
+      <c r="EC70">
+        <v>2612843.7983028698</v>
+      </c>
+      <c r="ED70">
+        <v>172562.39813939299</v>
+      </c>
+      <c r="EE70">
+        <v>133360.703194381</v>
+      </c>
+      <c r="EF70">
+        <v>30575.7442140329</v>
+      </c>
+      <c r="EG70">
+        <v>45108</v>
+      </c>
+      <c r="EH70">
+        <v>6042486.7531988202</v>
+      </c>
+      <c r="EI70">
+        <v>9097.5333847214297</v>
+      </c>
+      <c r="EJ70">
+        <v>29298.780964478599</v>
+      </c>
+      <c r="EK70">
+        <v>5004.2754195629004</v>
+      </c>
+      <c r="EL70">
+        <v>10469.884343538701</v>
+      </c>
+      <c r="EM70">
+        <v>88300.1021905901</v>
+      </c>
+      <c r="EN70">
+        <v>81117.423607514502</v>
+      </c>
+      <c r="EO70">
+        <v>392136.483368891</v>
+      </c>
+      <c r="EP70">
+        <v>16790.775825019799</v>
+      </c>
+      <c r="EQ70">
+        <v>8894.5983742268909</v>
+      </c>
+      <c r="ER70">
+        <v>16162.186780574601</v>
+      </c>
+      <c r="ES70">
+        <v>24497.937210586799</v>
+      </c>
+      <c r="ET70">
+        <v>1608.5757215902299</v>
+      </c>
+      <c r="EU70">
+        <v>212072.05518070399</v>
+      </c>
+      <c r="EV70">
+        <v>43805.958476361899</v>
+      </c>
+      <c r="EW70">
+        <v>11800288.574938901</v>
+      </c>
+      <c r="EX70">
+        <v>74319.723367097802</v>
+      </c>
+      <c r="EY70">
+        <v>42659.499387000498</v>
+      </c>
+      <c r="EZ70">
+        <v>2927.7371173644901</v>
+      </c>
+      <c r="FA70">
+        <v>4592015.9836427104</v>
+      </c>
+      <c r="FB70">
+        <v>1256504.57490628</v>
+      </c>
+      <c r="FC70">
+        <v>60463.537876666698</v>
+      </c>
+      <c r="FD70">
+        <v>78784.785028840706</v>
+      </c>
+      <c r="FE70">
+        <v>363523.332387081</v>
+      </c>
+      <c r="FF70">
+        <v>7507.1787865742199</v>
+      </c>
+      <c r="FG70">
+        <v>23781.312237211299</v>
+      </c>
+      <c r="FH70">
+        <v>259780.51052574001</v>
+      </c>
+      <c r="FI70">
+        <v>3109.3167211907999</v>
+      </c>
+      <c r="FJ70">
+        <v>138794.312013057</v>
+      </c>
+      <c r="FK70">
+        <v>8678.99467134322</v>
+      </c>
+      <c r="FL70">
+        <v>27448</v>
+      </c>
+      <c r="FM70">
+        <v>1104.3941182999199</v>
+      </c>
+      <c r="FN70">
+        <v>1101431.2378915099</v>
+      </c>
+      <c r="FO70">
+        <v>25385.2243257788</v>
+      </c>
+      <c r="FP70">
+        <v>7381.67400194943</v>
+      </c>
+      <c r="FQ70">
+        <v>8988.4722918031002</v>
+      </c>
+      <c r="FR70">
+        <v>178360</v>
+      </c>
+      <c r="FS70">
+        <v>103889.74075415199</v>
+      </c>
+      <c r="FT70">
+        <v>38623.322985001403</v>
+      </c>
+      <c r="FU70">
+        <v>681969.93701402703</v>
+      </c>
+      <c r="FV70">
+        <v>1421.83614541883</v>
+      </c>
+      <c r="FW70">
+        <v>212515.193590418</v>
+      </c>
+      <c r="FX70">
+        <v>24793.468966815399</v>
+      </c>
+      <c r="FY70">
+        <v>5711.1269740321804</v>
+      </c>
+      <c r="FZ70">
+        <v>15216.5299554671</v>
+      </c>
+      <c r="GA70">
+        <v>43886.567007496596</v>
+      </c>
+      <c r="GB70">
+        <v>1749350</v>
+      </c>
+      <c r="GC70">
+        <v>9230565.6040500291</v>
+      </c>
+      <c r="GD70">
+        <v>19788.147523164698</v>
+      </c>
+      <c r="GE70">
+        <v>43440</v>
+      </c>
+      <c r="GF70">
+        <v>94112</v>
+      </c>
+      <c r="GG70">
+        <v>769427.959843477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:189" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71">
+        <v>10419.7872546911</v>
+      </c>
+      <c r="C71">
+        <v>6249.7997280907002</v>
+      </c>
+      <c r="D71">
+        <v>21319.9441159501</v>
+      </c>
+      <c r="E71">
+        <v>13169.920148601601</v>
+      </c>
+      <c r="F71">
+        <v>10711.249835241901</v>
+      </c>
+      <c r="G71">
+        <v>124794.561572501</v>
+      </c>
+      <c r="H71">
+        <v>574820.882125729</v>
+      </c>
+      <c r="I71">
+        <v>11993.821676081099</v>
+      </c>
+      <c r="J71">
+        <v>21966.6843997426</v>
+      </c>
+      <c r="K71">
+        <v>37948.868473202601</v>
+      </c>
+      <c r="L71">
+        <v>5029.7535601995596</v>
+      </c>
+      <c r="M71">
+        <v>12008.6631278326</v>
+      </c>
+      <c r="N71">
+        <v>13456.7784853703</v>
+      </c>
+      <c r="O71">
+        <v>9396.2291019018794</v>
+      </c>
+      <c r="P71">
+        <v>38681.632600082397</v>
+      </c>
+      <c r="Q71">
+        <v>2617.5243566650902</v>
+      </c>
+      <c r="R71">
+        <v>7800.6721211304302</v>
+      </c>
+      <c r="S71">
+        <v>17406.793005117201</v>
+      </c>
+      <c r="T71">
+        <v>5420.2513105464704</v>
+      </c>
+      <c r="U71">
+        <v>14038.780963196899</v>
+      </c>
+      <c r="V71">
+        <v>5804.8820270953101</v>
+      </c>
+      <c r="W71">
+        <v>3371317.3483160101</v>
+      </c>
+      <c r="X71">
+        <v>3725.1634799594099</v>
+      </c>
+      <c r="Y71">
+        <v>81607.045624382401</v>
+      </c>
+      <c r="Z71">
+        <v>4583.5537868152896</v>
+      </c>
+      <c r="AA71">
+        <v>957424.80602569005</v>
+      </c>
+      <c r="AB71">
+        <v>9002.9605286023998</v>
+      </c>
+      <c r="AC71">
+        <v>25853.351589207199</v>
+      </c>
+      <c r="AD71">
+        <v>20428.693232633501</v>
+      </c>
+      <c r="AE71">
+        <v>9419.5676754646902</v>
+      </c>
+      <c r="AF71">
+        <v>129332.472028021</v>
+      </c>
+      <c r="AG71">
+        <v>4692.32179162784</v>
+      </c>
+      <c r="AH71">
+        <v>10754.782855179799</v>
+      </c>
+      <c r="AI71">
+        <v>29241.388202898601</v>
+      </c>
+      <c r="AJ71">
+        <v>2674.37505401115</v>
+      </c>
+      <c r="AK71">
+        <v>972</v>
+      </c>
+      <c r="AL71">
+        <v>962.81938646247102</v>
+      </c>
+      <c r="AM71">
+        <v>3418</v>
+      </c>
+      <c r="AN71">
+        <v>4048.09139653888</v>
+      </c>
+      <c r="AO71">
+        <v>13704.813422982401</v>
+      </c>
+      <c r="AP71">
+        <v>62662.653367912302</v>
+      </c>
+      <c r="AQ71">
+        <v>2708.1731442845098</v>
+      </c>
+      <c r="AR71">
+        <v>702383.21698904003</v>
+      </c>
+      <c r="AS71">
+        <v>4696.4779668197198</v>
+      </c>
+      <c r="AT71">
+        <v>88256.488627340805</v>
+      </c>
+      <c r="AU71">
+        <v>20867.9675456039</v>
+      </c>
+      <c r="AV71">
+        <v>33158</v>
+      </c>
+      <c r="AW71">
+        <v>13783.5194974841</v>
+      </c>
+      <c r="AX71">
+        <v>4173.8499432762301</v>
+      </c>
+      <c r="AY71">
+        <v>8730.3531412636203</v>
+      </c>
+      <c r="AZ71">
+        <v>7339.8053888527602</v>
+      </c>
+      <c r="BA71">
+        <v>10726.8139922062</v>
+      </c>
+      <c r="BB71">
+        <v>4535.8864098218201</v>
+      </c>
+      <c r="BC71">
+        <v>332777.51909709402</v>
+      </c>
+      <c r="BD71">
+        <v>54387.310031563698</v>
+      </c>
+      <c r="BE71">
+        <v>191267.46695678</v>
+      </c>
+      <c r="BF71">
+        <v>150327.34539996399</v>
+      </c>
+      <c r="BG71">
+        <v>746373.52393224905</v>
+      </c>
+      <c r="BH71">
+        <v>1276344</v>
+      </c>
+      <c r="BI71">
+        <v>1753.9475981993401</v>
+      </c>
+      <c r="BJ71">
+        <v>38520.3494922924</v>
+      </c>
+      <c r="BK71">
+        <v>7740.9806100777596</v>
+      </c>
+      <c r="BL71">
+        <v>11053.3135582494</v>
+      </c>
+      <c r="BM71">
+        <v>5652.3125231048898</v>
+      </c>
+      <c r="BN71">
+        <v>3637.2101197901902</v>
+      </c>
+      <c r="BO71">
+        <v>10752</v>
+      </c>
+      <c r="BP71">
+        <v>52307.412980377201</v>
+      </c>
+      <c r="BQ71">
+        <v>613917.212361624</v>
+      </c>
+      <c r="BR71">
+        <v>99770.380803217806</v>
+      </c>
+      <c r="BS71">
+        <v>7951.4221771200801</v>
+      </c>
+      <c r="BT71">
+        <v>23883.189492984598</v>
+      </c>
+      <c r="BU71">
+        <v>42052.707990221003</v>
+      </c>
+      <c r="BV71">
+        <v>22633436.938478202</v>
+      </c>
+      <c r="BW71">
+        <v>369092</v>
+      </c>
+      <c r="BX71">
+        <v>45598.087416553601</v>
+      </c>
+      <c r="BY71">
+        <v>82174</v>
+      </c>
+      <c r="BZ71">
+        <v>85197.435258263198</v>
+      </c>
+      <c r="CA71">
+        <v>590875.11467860697</v>
+      </c>
+      <c r="CB71">
+        <v>127955.10086979299</v>
+      </c>
+      <c r="CC71">
+        <v>36227.577578596203</v>
+      </c>
+      <c r="CD71">
+        <v>132453.58480820199</v>
+      </c>
+      <c r="CE71">
+        <v>56930.191938133699</v>
+      </c>
+      <c r="CF71">
+        <v>7479.9544531316396</v>
+      </c>
+      <c r="CG71">
+        <v>21688.827530913401</v>
+      </c>
+      <c r="CH71">
+        <v>15441.4446320976</v>
+      </c>
+      <c r="CI71">
+        <v>30773.882331775199</v>
+      </c>
+      <c r="CJ71">
+        <v>3896.63180286019</v>
+      </c>
+      <c r="CK71">
+        <v>46271.983865781898</v>
+      </c>
+      <c r="CL71">
+        <v>4718.6720856961902</v>
+      </c>
+      <c r="CM71">
+        <v>3483.5162207763201</v>
+      </c>
+      <c r="CN71">
+        <v>91369.3554181988</v>
+      </c>
+      <c r="CO71">
+        <v>35431.175055913598</v>
+      </c>
+      <c r="CP71">
+        <v>22242</v>
+      </c>
+      <c r="CQ71">
+        <v>25096.142612842799</v>
+      </c>
+      <c r="CR71">
+        <v>778992.72095063096</v>
+      </c>
+      <c r="CS71">
+        <v>32731.957723618299</v>
+      </c>
+      <c r="CT71">
+        <v>6902</v>
+      </c>
+      <c r="CU71">
+        <v>22872.217936286699</v>
+      </c>
+      <c r="CV71">
+        <v>6018.2378196990603</v>
+      </c>
+      <c r="CW71">
+        <v>26454.055096289801</v>
+      </c>
+      <c r="CX71">
+        <v>15237.315933476601</v>
+      </c>
+      <c r="CY71">
+        <v>27569.015977110801</v>
+      </c>
+      <c r="CZ71">
+        <v>2637.2939904744799</v>
+      </c>
+      <c r="DA71">
+        <v>4724.1226597608802</v>
+      </c>
+      <c r="DB71">
+        <v>6213.5198728456398</v>
+      </c>
+      <c r="DC71">
+        <v>204022.90259125701</v>
+      </c>
+      <c r="DD71">
+        <v>68611.363463931295</v>
+      </c>
+      <c r="DE71">
+        <v>3892.6778385752</v>
+      </c>
+      <c r="DF71">
+        <v>1451.79384965536</v>
+      </c>
+      <c r="DG71">
+        <v>4098.4698944410202</v>
+      </c>
+      <c r="DH71">
+        <v>3363.1909153021602</v>
+      </c>
+      <c r="DI71">
+        <v>38430.809029464603</v>
+      </c>
+      <c r="DJ71">
+        <v>7355.6240018544104</v>
+      </c>
+      <c r="DK71">
+        <v>9042.7163197780392</v>
+      </c>
+      <c r="DL71">
+        <v>13913.873021121201</v>
+      </c>
+      <c r="DM71">
+        <v>21883.982089689202</v>
+      </c>
+      <c r="DN71">
+        <v>22866</v>
+      </c>
+      <c r="DO71">
+        <v>109391.64956697699</v>
+      </c>
+      <c r="DP71">
+        <v>2266882.2710363199</v>
+      </c>
+      <c r="DQ71">
+        <v>75941.815039709996</v>
+      </c>
+      <c r="DR71">
+        <v>8428</v>
+      </c>
+      <c r="DS71">
+        <v>5760.4340572748297</v>
+      </c>
+      <c r="DT71">
+        <v>71899.277530891704</v>
+      </c>
+      <c r="DU71">
+        <v>16266.8109583188</v>
+      </c>
+      <c r="DV71">
+        <v>513797.928368603</v>
+      </c>
+      <c r="DW71">
+        <v>1478968.1457289599</v>
+      </c>
+      <c r="DX71">
+        <v>15400</v>
+      </c>
+      <c r="DY71">
+        <v>2103.50899961605</v>
+      </c>
+      <c r="DZ71">
+        <v>43396.011810350501</v>
+      </c>
+      <c r="EA71">
+        <v>14198.6805733601</v>
+      </c>
+      <c r="EB71">
+        <v>107040.182645514</v>
+      </c>
+      <c r="EC71">
+        <v>3339831.0593513702</v>
+      </c>
+      <c r="ED71">
+        <v>202763.551315269</v>
+      </c>
+      <c r="EE71">
+        <v>85813.465469529503</v>
+      </c>
+      <c r="EF71">
+        <v>33494.031458172198</v>
+      </c>
+      <c r="EG71">
+        <v>46180</v>
+      </c>
+      <c r="EH71">
+        <v>1610756.8825398299</v>
+      </c>
+      <c r="EI71">
+        <v>5923.5556121128402</v>
+      </c>
+      <c r="EJ71">
+        <v>37945.879501826603</v>
+      </c>
+      <c r="EK71">
+        <v>6642.4839783157404</v>
+      </c>
+      <c r="EL71">
+        <v>9651.8612290470101</v>
+      </c>
+      <c r="EM71">
+        <v>100086.44291661801</v>
+      </c>
+      <c r="EN71">
+        <v>9442.4216593529109</v>
+      </c>
+      <c r="EO71">
+        <v>350014.810238023</v>
+      </c>
+      <c r="EP71">
+        <v>19175.119582200801</v>
+      </c>
+      <c r="EQ71">
+        <v>5745.7585170741904</v>
+      </c>
+      <c r="ER71">
+        <v>16975.6712713858</v>
+      </c>
+      <c r="ES71">
+        <v>21622.501435734099</v>
+      </c>
+      <c r="ET71">
+        <v>1645.54915269306</v>
+      </c>
+      <c r="EU71">
+        <v>263705.69402329501</v>
+      </c>
+      <c r="EV71">
+        <v>54368.985900790503</v>
+      </c>
+      <c r="EW71">
+        <v>5241279.1195595702</v>
+      </c>
+      <c r="EX71">
+        <v>93232.624328153703</v>
+      </c>
+      <c r="EY71">
+        <v>52304.029507420601</v>
+      </c>
+      <c r="EZ71">
+        <v>2996.4564487409302</v>
+      </c>
+      <c r="FA71">
+        <v>2884615.6404511998</v>
+      </c>
+      <c r="FB71">
+        <v>330063.27490194998</v>
+      </c>
+      <c r="FC71">
+        <v>81903.868910436096</v>
+      </c>
+      <c r="FD71">
+        <v>158882.19198708201</v>
+      </c>
+      <c r="FE71">
+        <v>402444.75079923403</v>
+      </c>
+      <c r="FF71">
+        <v>9403.1267409064003</v>
+      </c>
+      <c r="FG71">
+        <v>68558.683670758997</v>
+      </c>
+      <c r="FH71">
+        <v>926634.66681291</v>
+      </c>
+      <c r="FI71">
+        <v>3342.2783070679402</v>
+      </c>
+      <c r="FJ71">
+        <v>333358.30245927902</v>
+      </c>
+      <c r="FK71">
+        <v>7602.4147584113198</v>
+      </c>
+      <c r="FL71">
+        <v>28586</v>
+      </c>
+      <c r="FM71">
+        <v>2572.5284327369</v>
+      </c>
+      <c r="FN71">
+        <v>631279.92167131801</v>
+      </c>
+      <c r="FO71">
+        <v>34786.398589471501</v>
+      </c>
+      <c r="FP71">
+        <v>9897.5834645375708</v>
+      </c>
+      <c r="FQ71">
+        <v>52157.633598705303</v>
+      </c>
+      <c r="FR71">
+        <v>167602</v>
+      </c>
+      <c r="FS71">
+        <v>230343.344259417</v>
+      </c>
+      <c r="FT71">
+        <v>23952.840679463301</v>
+      </c>
+      <c r="FU71">
+        <v>593012.52410075802</v>
+      </c>
+      <c r="FV71">
+        <v>2697.4463535981699</v>
+      </c>
+      <c r="FW71">
+        <v>127315.68078328</v>
+      </c>
+      <c r="FX71">
+        <v>27228.867553272401</v>
+      </c>
+      <c r="FY71">
+        <v>10845.724033734699</v>
+      </c>
+      <c r="FZ71">
+        <v>13759.795711774201</v>
+      </c>
+      <c r="GA71">
+        <v>47949.642592003103</v>
+      </c>
+      <c r="GB71">
+        <v>1916486</v>
+      </c>
+      <c r="GC71">
+        <v>10729381.236607</v>
+      </c>
+      <c r="GD71">
+        <v>31457.718242503699</v>
+      </c>
+      <c r="GE71">
+        <v>42586</v>
+      </c>
+      <c r="GF71">
+        <v>64196</v>
+      </c>
+      <c r="GG71">
+        <v>416331.49241886899</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -35955,34 +41682,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -35990,7 +41717,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>0.20355451593513399</v>
@@ -36022,7 +41749,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>7.1171833169317703E-2</v>
@@ -36054,7 +41781,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>0.10932092450862201</v>
@@ -36086,7 +41813,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>6.98634142752739E-2</v>
@@ -36118,7 +41845,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C6">
         <v>8.9561391513146196E-2</v>
@@ -36150,7 +41877,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C7">
         <v>8.17831586236617E-2</v>
@@ -36182,7 +41909,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>5.2227384051750099E-2</v>
@@ -36214,7 +41941,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C9">
         <v>7.1062698385283396E-2</v>
@@ -36246,7 +41973,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C10">
         <v>6.4535329594840804E-2</v>
@@ -36278,7 +42005,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C11">
         <v>9.0551570812493001E-2</v>
@@ -36310,7 +42037,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C12">
         <v>0.223879368585783</v>
@@ -36342,7 +42069,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C13">
         <v>0.133139993660679</v>
@@ -36374,7 +42101,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C14">
         <v>0.15967437534434001</v>
@@ -36406,7 +42133,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C15">
         <v>0.121605430695268</v>
@@ -36438,7 +42165,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C16">
         <v>7.3127497148864004E-2</v>
@@ -36470,7 +42197,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C17">
         <v>0.123469013731399</v>
@@ -36502,7 +42229,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C18">
         <v>0.212722554860621</v>
@@ -36534,7 +42261,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C19">
         <v>3.5782252866804198E-2</v>
@@ -36566,7 +42293,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C20">
         <v>0.13351161527101599</v>
@@ -36598,7 +42325,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C21">
         <v>0.67312341252151797</v>
@@ -36630,7 +42357,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <v>9.2786398831222805E-2</v>
@@ -36662,7 +42389,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C23">
         <v>8.6561147798016894E-2</v>
@@ -36694,7 +42421,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C24">
         <v>5.3930944242898099E-2</v>
@@ -36726,7 +42453,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>6.3417984500051802E-2</v>
@@ -36758,7 +42485,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C26">
         <v>0.142791934099396</v>
@@ -36790,7 +42517,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C27">
         <v>2.21693467338702E-2</v>
@@ -36822,7 +42549,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C28">
         <v>0.61160823137416098</v>
@@ -36854,7 +42581,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C29">
         <v>0.11337183195644</v>
@@ -36886,7 +42613,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C30">
         <v>0.116580390886958</v>
@@ -36918,7 +42645,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C31">
         <v>6.8500608219351306E-2</v>
@@ -36950,7 +42677,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C32">
         <v>6.4404649680260204E-2</v>
@@ -36982,7 +42709,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C33">
         <v>0.11274942544500501</v>
@@ -37014,7 +42741,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C34">
         <v>0.179461195663421</v>
@@ -37046,7 +42773,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C35">
         <v>7.5823906878808994E-2</v>
@@ -37078,7 +42805,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C36">
         <v>8.1223240607690705E-2</v>
@@ -37110,7 +42837,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C37">
         <v>0.27482893252485702</v>
@@ -37142,7 +42869,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C38">
         <v>0.67181054911827498</v>
@@ -37174,7 +42901,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C39">
         <v>0.105898585615959</v>
@@ -37206,7 +42933,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C40">
         <v>0.13974576867372801</v>
@@ -37238,7 +42965,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C41">
         <v>8.5592998493363506E-2</v>
@@ -37270,7 +42997,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C42">
         <v>0.36725225682389001</v>
@@ -37302,7 +43029,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C43">
         <v>0.58956829302797098</v>
@@ -37334,7 +43061,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C44">
         <v>0.135140495634159</v>
@@ -37366,7 +43093,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C45">
         <v>0.12243858483174901</v>
@@ -37398,7 +43125,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C46">
         <v>8.0522471026751502E-2</v>
@@ -37430,7 +43157,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C47">
         <v>5.0882446009630197E-2</v>
@@ -37462,7 +43189,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C48">
         <v>5.1747709084052698E-2</v>
@@ -37494,7 +43221,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C49">
         <v>9.1800207015738905E-2</v>
@@ -37526,7 +43253,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C50">
         <v>0.163232749165726</v>
@@ -37558,7 +43285,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C51">
         <v>5.4798507031743098E-2</v>
@@ -37590,7 +43317,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C52">
         <v>5.2938493305995503E-2</v>
@@ -37622,7 +43349,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C53">
         <v>0.168771456488089</v>
@@ -37654,7 +43381,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C54">
         <v>0.240555358861406</v>
@@ -37686,7 +43413,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C55">
         <v>8.8801674756069496E-2</v>
@@ -37718,7 +43445,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C56">
         <v>4.8887453731608001E-2</v>
@@ -37750,7 +43477,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C57">
         <v>7.7785894624693805E-2</v>
@@ -37782,7 +43509,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>4.2698552486118799E-2</v>
@@ -37814,7 +43541,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C59">
         <v>0.13481680777017099</v>
@@ -37846,7 +43573,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C60">
         <v>0.16991180743808601</v>
@@ -37878,7 +43605,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C61">
         <v>0.211970533886706</v>
@@ -37910,7 +43637,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C62">
         <v>9.0924094223142099E-2</v>
@@ -37942,7 +43669,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C63">
         <v>5.9228364895018697E-2</v>
@@ -37974,7 +43701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C64">
         <v>0.27588621785204498</v>
@@ -38006,7 +43733,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C65">
         <v>9.9276122690712398E-2</v>
@@ -38038,7 +43765,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -38070,7 +43797,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C67">
         <v>0.10480699753103601</v>
@@ -38102,7 +43829,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C68">
         <v>4.8360306314748899E-2</v>
@@ -38134,7 +43861,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <v>5.2842440815201501E-2</v>
@@ -38166,7 +43893,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C70">
         <v>0.139331976856405</v>
@@ -38198,7 +43925,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>0.246003436161288</v>
@@ -38230,7 +43957,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C72">
         <v>9.2163480973957504E-2</v>
@@ -38262,7 +43989,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C73">
         <v>5.81073992397447E-2</v>
@@ -38294,7 +44021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C74">
         <v>4.9310743381191499E-2</v>
@@ -38326,7 +44053,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C75">
         <v>4.9902442984880002E-2</v>
@@ -38358,7 +44085,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C76">
         <v>0.39881335543137802</v>
@@ -38390,7 +44117,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C77">
         <v>2.3489196490290298E-2</v>
@@ -38422,7 +44149,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C78">
         <v>0.20790404257710399</v>
@@ -38454,7 +44181,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C79">
         <v>0.146337483676303</v>
@@ -38486,7 +44213,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C80">
         <v>0.187695405815623</v>
@@ -38518,7 +44245,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>0.491375414160869</v>
@@ -38550,7 +44277,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C82">
         <v>0.115078035499392</v>
@@ -38582,7 +44309,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C83">
         <v>0.176984920915293</v>
@@ -38614,7 +44341,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C84">
         <v>0.173179393055505</v>
@@ -38646,7 +44373,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C85">
         <v>9.2528911374940806E-2</v>
@@ -38678,7 +44405,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C86">
         <v>5.8010731055035701E-2</v>
@@ -38710,7 +44437,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C87">
         <v>7.7722097005819904E-2</v>
@@ -38742,7 +44469,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C88">
         <v>0.37845829448603202</v>
@@ -38774,7 +44501,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C89">
         <v>6.9462491267826595E-2</v>
@@ -38806,7 +44533,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C90">
         <v>0.22081252134026599</v>
@@ -38838,7 +44565,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C91">
         <v>0.124190089083057</v>
@@ -38870,7 +44597,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C92">
         <v>7.3026934403160895E-2</v>
@@ -38902,7 +44629,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C93">
         <v>9.2439118590355293E-2</v>
@@ -38934,7 +44661,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C94">
         <v>1.3407445014889999E-2</v>
@@ -38966,7 +44693,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C95">
         <v>4.3497297926604603E-2</v>
@@ -38998,7 +44725,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C96">
         <v>3.6102760029784797E-2</v>
@@ -39030,7 +44757,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C97">
         <v>9.9942491011110898E-2</v>
@@ -39062,7 +44789,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C98">
         <v>6.8048336004426196E-2</v>
@@ -39094,7 +44821,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C99">
         <v>1.2124814221988099E-2</v>
@@ -39126,7 +44853,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C100">
         <v>0.12914443433446601</v>
@@ -39158,7 +44885,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C101">
         <v>0.29979785287527999</v>
@@ -39190,7 +44917,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C102">
         <v>0.38554691363583699</v>
@@ -39222,7 +44949,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C103">
         <v>0.10723542461831</v>
@@ -39254,7 +44981,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C104">
         <v>0.109604264534194</v>
@@ -39286,7 +45013,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C105">
         <v>7.3139029713064893E-2</v>
@@ -39318,7 +45045,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C106">
         <v>0.61170368658399199</v>
@@ -39350,7 +45077,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C107">
         <v>4.4505262772852598E-2</v>
@@ -39382,7 +45109,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>3.6536906211479599E-2</v>
@@ -39414,7 +45141,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C109">
         <v>0.52495729158589199</v>
@@ -39446,7 +45173,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C110">
         <v>0.16939674275079</v>
@@ -39478,7 +45205,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C111">
         <v>0.114589268966381</v>
@@ -39510,7 +45237,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C112">
         <v>0.15645777212670101</v>
@@ -39542,7 +45269,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C113">
         <v>0.16387553045535799</v>
@@ -39574,7 +45301,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C114">
         <v>0.14716443437048901</v>
@@ -39606,7 +45333,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C115">
         <v>0.19692615057113999</v>
@@ -39638,7 +45365,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C116">
         <v>0.102166418888282</v>
@@ -39670,7 +45397,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C117">
         <v>0.105940395450179</v>
@@ -39702,7 +45429,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C118">
         <v>6.4288706403156398E-2</v>
@@ -39734,7 +45461,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C119">
         <v>4.2256658532654097E-2</v>
@@ -39766,7 +45493,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C120">
         <v>2.11335879086944E-2</v>
@@ -39798,7 +45525,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C121">
         <v>8.4121750121002495E-2</v>
@@ -39830,7 +45557,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C122">
         <v>0.14695130050767899</v>
@@ -39862,7 +45589,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C123">
         <v>7.2118249685223401E-2</v>
@@ -39894,7 +45621,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C124">
         <v>7.8233957851069805E-2</v>
@@ -39926,7 +45653,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C125">
         <v>0.189937015040819</v>
@@ -39958,7 +45685,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C126">
         <v>0.21606242100411699</v>
@@ -39990,7 +45717,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C127">
         <v>4.8099815323337299E-2</v>
@@ -40022,7 +45749,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C128">
         <v>7.1916710607260195E-2</v>
@@ -40054,7 +45781,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C129">
         <v>0.220420965039239</v>
@@ -40086,7 +45813,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C130">
         <v>5.1392206438741303E-2</v>
@@ -40118,7 +45845,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C131">
         <v>0.22026897992180999</v>
@@ -40150,7 +45877,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C132">
         <v>0.25547942824419401</v>
@@ -40182,7 +45909,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C133">
         <v>7.6881456032357895E-2</v>
@@ -40214,7 +45941,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C134">
         <v>6.36332290418926E-2</v>
@@ -40246,7 +45973,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C135">
         <v>0.117784579214015</v>
@@ -40278,7 +46005,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C136">
         <v>0.14140305525909599</v>
@@ -40310,7 +46037,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C137">
         <v>0.103864360487343</v>
@@ -40342,7 +46069,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C138">
         <v>8.4191229938618703E-2</v>
@@ -40374,7 +46101,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C139">
         <v>0.12154198520767601</v>
@@ -40406,7 +46133,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C140">
         <v>4.91879314316006E-2</v>
@@ -40438,7 +46165,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C141">
         <v>0.21107317633786801</v>
@@ -40470,7 +46197,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C142">
         <v>4.4411066376588898E-2</v>
@@ -40502,7 +46229,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C143">
         <v>2.98640531996394E-2</v>
@@ -40534,7 +46261,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C144">
         <v>0.271796407859351</v>
@@ -40566,7 +46293,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C145">
         <v>0.12580651547580701</v>
@@ -40598,7 +46325,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C146">
         <v>8.6591784947380707E-2</v>
@@ -40630,7 +46357,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C147">
         <v>8.8489581457621494E-2</v>
@@ -40662,7 +46389,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C148">
         <v>0.13682637831250799</v>
@@ -40694,7 +46421,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="C149">
         <v>0.32037964939802599</v>
@@ -40726,7 +46453,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C150">
         <v>0.27998743865537101</v>
@@ -40758,7 +46485,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C151">
         <v>0.64244997440668805</v>
@@ -40790,7 +46517,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C152">
         <v>9.1689021730923803E-2</v>
@@ -40822,7 +46549,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C153">
         <v>0.115210827568781</v>
@@ -40854,7 +46581,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C154">
         <v>3.83300847831681E-2</v>
@@ -40886,7 +46613,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C155">
         <v>0.163577022794727</v>
@@ -40918,7 +46645,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C156">
         <v>0.133975289211891</v>
@@ -40950,7 +46677,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C157">
         <v>0.1078684683997</v>
@@ -40982,7 +46709,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C158">
         <v>0.17309949807705499</v>
@@ -41014,7 +46741,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C159">
         <v>2.2403139949113301E-2</v>
@@ -41046,7 +46773,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C160">
         <v>8.9775023120038003E-2</v>
@@ -41078,7 +46805,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C161">
         <v>6.2320833520209097E-2</v>
@@ -41110,7 +46837,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C162">
         <v>0.11203623760091599</v>
@@ -41142,7 +46869,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C163">
         <v>3.8194423255481502E-2</v>
@@ -41174,7 +46901,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C164">
         <v>5.86875616312037E-2</v>
@@ -41206,7 +46933,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C165">
         <v>9.4020151243392594E-2</v>
@@ -41238,7 +46965,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C166">
         <v>0.117932944514335</v>
@@ -41270,7 +46997,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -41302,7 +47029,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C168">
         <v>5.6881702863020099E-2</v>
@@ -41334,7 +47061,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C169">
         <v>8.3176235633749804E-2</v>
@@ -41366,7 +47093,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C170">
         <v>8.4886718162674193E-2</v>
@@ -41398,7 +47125,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C171">
         <v>2.2741320923880901E-2</v>
@@ -41430,7 +47157,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C172">
         <v>1.04005696991276</v>
@@ -41462,7 +47189,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C173">
         <v>1.1828688656653E-2</v>
@@ -41494,7 +47221,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C174">
         <v>4.0372246927643102E-2</v>
@@ -41526,7 +47253,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C175">
         <v>2.4304368777532899E-2</v>
@@ -41558,7 +47285,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C176">
         <v>8.2591101682345597E-2</v>
@@ -41590,7 +47317,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C177">
         <v>5.80581857962554E-2</v>
@@ -41622,7 +47349,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C178">
         <v>0.11677759744524201</v>
@@ -41654,7 +47381,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C179">
         <v>6.7579745122061302E-2</v>
@@ -41686,7 +47413,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C180">
         <v>9.8170554129076798E-2</v>
@@ -41718,7 +47445,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C181">
         <v>5.3582572864689697E-2</v>
@@ -41750,7 +47477,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C182">
         <v>8.8349768840508602E-2</v>
@@ -41782,7 +47509,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C183">
         <v>0.13158767910199001</v>
@@ -41814,7 +47541,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C184">
         <v>5.3701096659652697E-2</v>
@@ -41846,7 +47573,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C185">
         <v>5.4022781813251299E-2</v>
@@ -41878,7 +47605,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C186">
         <v>3.8127848653791097E-2</v>
@@ -41910,7 +47637,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C187">
         <v>0.109857601324214</v>
@@ -41942,7 +47669,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C188">
         <v>0.193864715941197</v>
@@ -41974,7 +47701,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C189">
         <v>4.8696159132311199E-2</v>
@@ -42011,117 +47738,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
